--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279353.197919468</v>
+        <v>1278572.490687361</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736571</v>
+        <v>504792.0292736565</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S8" t="n">
-        <v>10.00967878293136</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="T8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="U9" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,52 +1312,52 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>266.2118875894567</v>
       </c>
       <c r="E11" t="n">
-        <v>287.9540251593622</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.1258412473394</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>70.518051879756</v>
+        <v>308.5392932229117</v>
       </c>
       <c r="H11" t="n">
-        <v>221.2856593134232</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.16498594056921</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.62754276119561</v>
+        <v>4.977410325217093</v>
       </c>
       <c r="T11" t="n">
         <v>116.9560250728076</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>149.4110601138059</v>
       </c>
       <c r="V11" t="n">
         <v>230.7256438274261</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.025743305383</v>
       </c>
       <c r="X11" t="n">
         <v>275.3260015381296</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.7225993343284</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.91821485099608</v>
+        <v>41.91821485099607</v>
       </c>
       <c r="S12" t="n">
         <v>146.1054229501925</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.83597746194405</v>
+        <v>78.83597746194404</v>
       </c>
       <c r="C13" t="n">
-        <v>65.03597230734454</v>
+        <v>65.03597230734452</v>
       </c>
       <c r="D13" t="n">
-        <v>48.65733670492293</v>
+        <v>48.65733670492291</v>
       </c>
       <c r="E13" t="n">
-        <v>47.60508656070238</v>
+        <v>47.60508656070236</v>
       </c>
       <c r="F13" t="n">
-        <v>48.07201088888868</v>
+        <v>48.07201088888867</v>
       </c>
       <c r="G13" t="n">
-        <v>64.11354208299673</v>
+        <v>64.11354208299672</v>
       </c>
       <c r="H13" t="n">
-        <v>52.8219743816496</v>
+        <v>52.82197438164958</v>
       </c>
       <c r="I13" t="n">
-        <v>32.86507267130899</v>
+        <v>32.86507267130897</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65848627501026</v>
+        <v>34.65848627501025</v>
       </c>
       <c r="S13" t="n">
-        <v>104.625283637315</v>
+        <v>104.6252836373149</v>
       </c>
       <c r="T13" t="n">
         <v>126.9670477732251</v>
@@ -1607,10 +1607,10 @@
         <v>287.219266587247</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.2305835449287</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.2118875894567</v>
       </c>
       <c r="E14" t="n">
         <v>287.9540251593622</v>
@@ -1622,10 +1622,10 @@
         <v>308.5392932229117</v>
       </c>
       <c r="H14" t="n">
-        <v>221.2856593134232</v>
+        <v>221.2856593134233</v>
       </c>
       <c r="I14" t="n">
-        <v>5.380357277605894</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.6275427611956</v>
       </c>
       <c r="T14" t="n">
-        <v>116.9560250728076</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.4110601138059</v>
+        <v>146.4288157014491</v>
       </c>
       <c r="V14" t="n">
-        <v>230.7256438274261</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.025743305383</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.83597746194407</v>
+        <v>78.83597746194404</v>
       </c>
       <c r="C16" t="n">
-        <v>65.03597230734455</v>
+        <v>65.03597230734452</v>
       </c>
       <c r="D16" t="n">
-        <v>48.65733670492294</v>
+        <v>48.65733670492291</v>
       </c>
       <c r="E16" t="n">
-        <v>47.60508656070239</v>
+        <v>47.60508656070236</v>
       </c>
       <c r="F16" t="n">
-        <v>48.0720108888887</v>
+        <v>48.07201088888867</v>
       </c>
       <c r="G16" t="n">
-        <v>64.11354208299676</v>
+        <v>64.11354208299673</v>
       </c>
       <c r="H16" t="n">
-        <v>52.82197438164961</v>
+        <v>52.82197438164958</v>
       </c>
       <c r="I16" t="n">
-        <v>32.86507267130901</v>
+        <v>32.86507267130898</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65848627501028</v>
+        <v>34.65848627501025</v>
       </c>
       <c r="S16" t="n">
-        <v>104.625283637315</v>
+        <v>104.6252836373149</v>
       </c>
       <c r="T16" t="n">
         <v>126.9670477732251</v>
@@ -1850,10 +1850,10 @@
         <v>214.9380668765854</v>
       </c>
       <c r="E17" t="n">
-        <v>236.6802044464909</v>
+        <v>236.680204446491</v>
       </c>
       <c r="F17" t="n">
-        <v>91.66985235856284</v>
+        <v>255.8520205344681</v>
       </c>
       <c r="G17" t="n">
         <v>257.2654725100404</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.35372204832432</v>
+        <v>19.35372204832435</v>
       </c>
       <c r="T17" t="n">
-        <v>65.68220435993631</v>
+        <v>65.68220435993634</v>
       </c>
       <c r="U17" t="n">
-        <v>98.13723940093462</v>
+        <v>98.13723940093465</v>
       </c>
       <c r="V17" t="n">
-        <v>179.4518231145548</v>
+        <v>15.26965493864898</v>
       </c>
       <c r="W17" t="n">
         <v>204.7519225925117</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.56215674907276</v>
+        <v>27.56215674907278</v>
       </c>
       <c r="C19" t="n">
-        <v>13.76215159447324</v>
+        <v>13.76215159447327</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.83972137012544</v>
+        <v>12.83972137012547</v>
       </c>
       <c r="H19" t="n">
-        <v>1.548153668778298</v>
+        <v>1.548153668778326</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.35146292444364</v>
+        <v>82.90255230004746</v>
       </c>
       <c r="T19" t="n">
-        <v>75.69322706035379</v>
+        <v>75.69322706035382</v>
       </c>
       <c r="U19" t="n">
-        <v>159.6990497959916</v>
+        <v>130.1479604203875</v>
       </c>
       <c r="V19" t="n">
-        <v>103.9702931486983</v>
+        <v>103.9702931486984</v>
       </c>
       <c r="W19" t="n">
         <v>129.1371792193116</v>
       </c>
       <c r="X19" t="n">
-        <v>74.78228121511472</v>
+        <v>74.78228121511475</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.65714897118241</v>
+        <v>65.65714897118244</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>214.9380668765854</v>
       </c>
       <c r="E20" t="n">
-        <v>236.6802044464909</v>
+        <v>236.680204446491</v>
       </c>
       <c r="F20" t="n">
-        <v>255.8520205344681</v>
+        <v>91.66985235856349</v>
       </c>
       <c r="G20" t="n">
         <v>257.2654725100404</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>19.35372204832435</v>
       </c>
       <c r="T20" t="n">
-        <v>18.9909976332888</v>
+        <v>65.68220435993634</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>98.13723940093465</v>
       </c>
       <c r="V20" t="n">
         <v>179.4518231145548</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.56215674907276</v>
+        <v>27.56215674907278</v>
       </c>
       <c r="C22" t="n">
-        <v>13.76215159447324</v>
+        <v>13.76215159447327</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>29.55108937560377</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.83972137012544</v>
+        <v>12.83972137012547</v>
       </c>
       <c r="H22" t="n">
-        <v>1.548153668778298</v>
+        <v>1.548153668778326</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.9025523000478</v>
+        <v>53.35146292444367</v>
       </c>
       <c r="T22" t="n">
-        <v>75.69322706035379</v>
+        <v>75.69322706035382</v>
       </c>
       <c r="U22" t="n">
         <v>130.1479604203875</v>
       </c>
       <c r="V22" t="n">
-        <v>103.9702931486983</v>
+        <v>103.9702931486984</v>
       </c>
       <c r="W22" t="n">
         <v>129.1371792193116</v>
       </c>
       <c r="X22" t="n">
-        <v>74.78228121511472</v>
+        <v>74.78228121511475</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.65714897118241</v>
+        <v>65.65714897118244</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>29.5510893756041</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.92405723735309</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.62703213825112</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.219266587247</v>
+        <v>287.2192665872469</v>
       </c>
       <c r="C26" t="n">
         <v>275.2305835449287</v>
       </c>
       <c r="D26" t="n">
-        <v>266.2118875894567</v>
+        <v>266.2118875894566</v>
       </c>
       <c r="E26" t="n">
         <v>287.9540251593622</v>
@@ -2573,7 +2573,7 @@
         <v>221.2856593134232</v>
       </c>
       <c r="I26" t="n">
-        <v>48.16498594056921</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.62754276119561</v>
+        <v>11.27660560646617</v>
       </c>
       <c r="T26" t="n">
         <v>116.9560250728076</v>
@@ -2612,7 +2612,7 @@
         <v>149.4110601138059</v>
       </c>
       <c r="V26" t="n">
-        <v>123.2097207321272</v>
+        <v>230.7256438274261</v>
       </c>
       <c r="W26" t="n">
         <v>256.025743305383</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S27" t="n">
         <v>146.1054229501925</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.83597746194405</v>
+        <v>78.83597746194403</v>
       </c>
       <c r="C28" t="n">
-        <v>65.03597230734454</v>
+        <v>65.03597230734451</v>
       </c>
       <c r="D28" t="n">
-        <v>48.65733670492293</v>
+        <v>48.6573367049229</v>
       </c>
       <c r="E28" t="n">
-        <v>47.60508656070238</v>
+        <v>47.60508656070235</v>
       </c>
       <c r="F28" t="n">
-        <v>48.07201088888868</v>
+        <v>48.07201088888866</v>
       </c>
       <c r="G28" t="n">
-        <v>64.11354208299673</v>
+        <v>64.1135420829967</v>
       </c>
       <c r="H28" t="n">
-        <v>52.8219743816496</v>
+        <v>52.82197438164957</v>
       </c>
       <c r="I28" t="n">
-        <v>32.86507267130899</v>
+        <v>32.86507267130897</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65848627501027</v>
+        <v>34.65848627501024</v>
       </c>
       <c r="S28" t="n">
-        <v>104.625283637315</v>
+        <v>104.6252836373149</v>
       </c>
       <c r="T28" t="n">
         <v>126.9670477732251</v>
       </c>
       <c r="U28" t="n">
-        <v>181.4217811332588</v>
+        <v>181.4217811332587</v>
       </c>
       <c r="V28" t="n">
         <v>155.2441138615696</v>
@@ -2810,7 +2810,7 @@
         <v>221.2856593134232</v>
       </c>
       <c r="I29" t="n">
-        <v>48.16498594056914</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.62754276119557</v>
+        <v>11.27660560646759</v>
       </c>
       <c r="T29" t="n">
         <v>116.9560250728076</v>
@@ -2849,7 +2849,7 @@
         <v>149.4110601138059</v>
       </c>
       <c r="V29" t="n">
-        <v>123.2097207321293</v>
+        <v>230.725643827426</v>
       </c>
       <c r="W29" t="n">
         <v>256.0257433053829</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S30" t="n">
         <v>146.1054229501925</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65848627501022</v>
+        <v>34.65848627501023</v>
       </c>
       <c r="S31" t="n">
         <v>104.6252836373149</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>277.4618342861737</v>
+        <v>277.4618342861738</v>
       </c>
       <c r="C32" t="n">
         <v>265.4731512438555</v>
       </c>
       <c r="D32" t="n">
-        <v>256.4544552883834</v>
+        <v>256.4544552883835</v>
       </c>
       <c r="E32" t="n">
-        <v>278.1965928582889</v>
+        <v>278.196592858289</v>
       </c>
       <c r="F32" t="n">
-        <v>297.3684089462661</v>
+        <v>297.3684089462662</v>
       </c>
       <c r="G32" t="n">
-        <v>298.7818609218384</v>
+        <v>298.7818609218385</v>
       </c>
       <c r="H32" t="n">
         <v>211.52822701235</v>
       </c>
       <c r="I32" t="n">
-        <v>38.40755363949589</v>
+        <v>38.40755363949602</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.87011046012233</v>
+        <v>60.87011046012243</v>
       </c>
       <c r="T32" t="n">
-        <v>107.1985927717343</v>
+        <v>107.1985927717344</v>
       </c>
       <c r="U32" t="n">
-        <v>139.6536278127326</v>
+        <v>139.6536278127327</v>
       </c>
       <c r="V32" t="n">
-        <v>220.9682115263528</v>
+        <v>220.9682115263529</v>
       </c>
       <c r="W32" t="n">
-        <v>246.2683110043097</v>
+        <v>246.2683110043098</v>
       </c>
       <c r="X32" t="n">
-        <v>265.5685692370563</v>
+        <v>265.5685692370564</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.9651670332551</v>
+        <v>276.9651670332552</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S33" t="n">
         <v>146.1054229501925</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.07854516087076</v>
+        <v>69.07854516087086</v>
       </c>
       <c r="C34" t="n">
-        <v>55.27854000627124</v>
+        <v>55.27854000627134</v>
       </c>
       <c r="D34" t="n">
-        <v>38.89990440384963</v>
+        <v>38.89990440384973</v>
       </c>
       <c r="E34" t="n">
-        <v>37.84765425962908</v>
+        <v>37.84765425962918</v>
       </c>
       <c r="F34" t="n">
-        <v>38.31457858781539</v>
+        <v>38.31457858781549</v>
       </c>
       <c r="G34" t="n">
-        <v>54.35610978192344</v>
+        <v>54.35610978192354</v>
       </c>
       <c r="H34" t="n">
-        <v>43.0645420805763</v>
+        <v>43.0645420805764</v>
       </c>
       <c r="I34" t="n">
-        <v>23.1076403702357</v>
+        <v>23.1076403702358</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.90105397393697</v>
+        <v>24.90105397393707</v>
       </c>
       <c r="S34" t="n">
-        <v>94.86785133624164</v>
+        <v>94.86785133624176</v>
       </c>
       <c r="T34" t="n">
-        <v>117.2096154721518</v>
+        <v>117.2096154721519</v>
       </c>
       <c r="U34" t="n">
-        <v>171.6643488321855</v>
+        <v>171.6643488321856</v>
       </c>
       <c r="V34" t="n">
         <v>145.4866815604964</v>
       </c>
       <c r="W34" t="n">
-        <v>170.6535676311096</v>
+        <v>170.6535676311097</v>
       </c>
       <c r="X34" t="n">
-        <v>116.2986696269127</v>
+        <v>116.2986696269128</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.1735373829804</v>
+        <v>107.1735373829805</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>235.9454458743756</v>
       </c>
       <c r="C35" t="n">
-        <v>223.9567628320574</v>
+        <v>223.9567628320573</v>
       </c>
       <c r="D35" t="n">
         <v>214.9380668765853</v>
       </c>
       <c r="E35" t="n">
-        <v>236.6802044464909</v>
+        <v>236.6802044464908</v>
       </c>
       <c r="F35" t="n">
         <v>255.852020534468</v>
       </c>
       <c r="G35" t="n">
-        <v>257.2654725100404</v>
+        <v>257.2654725100403</v>
       </c>
       <c r="H35" t="n">
         <v>170.0118386005519</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.35372204832427</v>
+        <v>19.35372204832424</v>
       </c>
       <c r="T35" t="n">
-        <v>65.68220435993626</v>
+        <v>65.68220435993624</v>
       </c>
       <c r="U35" t="n">
-        <v>98.13723940093456</v>
+        <v>98.13723940093453</v>
       </c>
       <c r="V35" t="n">
         <v>179.4518231145547</v>
@@ -3329,7 +3329,7 @@
         <v>204.7519225925116</v>
       </c>
       <c r="X35" t="n">
-        <v>224.0521808252583</v>
+        <v>224.0521808252582</v>
       </c>
       <c r="Y35" t="n">
         <v>235.448778621457</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S36" t="n">
         <v>146.1054229501925</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.5621567490727</v>
+        <v>27.56215674907267</v>
       </c>
       <c r="C37" t="n">
-        <v>13.76215159447318</v>
+        <v>13.76215159447315</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.83972137012538</v>
+        <v>12.83972137012535</v>
       </c>
       <c r="H37" t="n">
-        <v>1.54815366877824</v>
+        <v>1.548153668778212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.90255230004848</v>
+        <v>82.9025523000486</v>
       </c>
       <c r="T37" t="n">
-        <v>75.69322706035373</v>
+        <v>75.69322706035371</v>
       </c>
       <c r="U37" t="n">
         <v>130.1479604203874</v>
@@ -3487,10 +3487,10 @@
         <v>129.1371792193115</v>
       </c>
       <c r="X37" t="n">
-        <v>74.78228121511466</v>
+        <v>74.78228121511464</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.65714897118235</v>
+        <v>65.65714897118232</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.9454458743755</v>
+        <v>235.9454458743756</v>
       </c>
       <c r="C38" t="n">
         <v>223.9567628320573</v>
@@ -3515,10 +3515,10 @@
         <v>255.852020534468</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2654725100402</v>
+        <v>257.2654725100403</v>
       </c>
       <c r="H38" t="n">
-        <v>170.0118386005518</v>
+        <v>170.0118386005519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.35372204832419</v>
+        <v>19.35372204832424</v>
       </c>
       <c r="T38" t="n">
-        <v>65.68220435993618</v>
+        <v>65.68220435993624</v>
       </c>
       <c r="U38" t="n">
-        <v>98.13723940093448</v>
+        <v>98.13723940093453</v>
       </c>
       <c r="V38" t="n">
         <v>179.4518231145547</v>
@@ -3569,7 +3569,7 @@
         <v>224.0521808252582</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.4487786214569</v>
+        <v>235.448778621457</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S39" t="n">
         <v>146.1054229501925</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.56215674907261</v>
+        <v>27.56215674907267</v>
       </c>
       <c r="C40" t="n">
-        <v>13.7621515944731</v>
+        <v>13.76215159447315</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.8397213701253</v>
+        <v>12.83972137012535</v>
       </c>
       <c r="H40" t="n">
-        <v>31.09924304438391</v>
+        <v>1.548153668778212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.3514629244435</v>
+        <v>82.9025523000486</v>
       </c>
       <c r="T40" t="n">
-        <v>75.69322706035365</v>
+        <v>75.69322706035371</v>
       </c>
       <c r="U40" t="n">
         <v>130.1479604203874</v>
       </c>
       <c r="V40" t="n">
-        <v>103.9702931486982</v>
+        <v>103.9702931486983</v>
       </c>
       <c r="W40" t="n">
         <v>129.1371792193115</v>
       </c>
       <c r="X40" t="n">
-        <v>74.78228121511458</v>
+        <v>74.78228121511464</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.65714897118227</v>
+        <v>65.65714897118232</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>239.0542806466778</v>
+        <v>239.0542806466777</v>
       </c>
       <c r="C41" t="n">
         <v>227.0655976043595</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.46255682062642</v>
+        <v>22.46255682062638</v>
       </c>
       <c r="T41" t="n">
-        <v>25.26735232000799</v>
+        <v>68.79103913223837</v>
       </c>
       <c r="U41" t="n">
         <v>101.2460741732367</v>
       </c>
       <c r="V41" t="n">
-        <v>182.5606578868569</v>
+        <v>139.0369710746267</v>
       </c>
       <c r="W41" t="n">
         <v>207.8607573648138</v>
@@ -3806,7 +3806,7 @@
         <v>227.1610155975604</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.5576133937592</v>
+        <v>238.5576133937591</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S42" t="n">
         <v>146.1054229501925</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.67099152137484</v>
+        <v>30.67099152137482</v>
       </c>
       <c r="C43" t="n">
-        <v>16.87098636677533</v>
+        <v>16.8709863667753</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4923507643537164</v>
+        <v>0.492350764353688</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.94855614242753</v>
+        <v>15.9485561424275</v>
       </c>
       <c r="H43" t="n">
-        <v>4.656988441080386</v>
+        <v>4.656988441080358</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.46029769674573</v>
+        <v>56.46029769674571</v>
       </c>
       <c r="T43" t="n">
-        <v>78.80206183265588</v>
+        <v>78.80206183265585</v>
       </c>
       <c r="U43" t="n">
         <v>133.2567951926896</v>
@@ -3961,10 +3961,10 @@
         <v>132.2460139916137</v>
       </c>
       <c r="X43" t="n">
-        <v>77.89111598741681</v>
+        <v>77.89111598741678</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.7659837434845</v>
+        <v>68.76598374348447</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>258.9608553067702</v>
       </c>
       <c r="G44" t="n">
-        <v>239.3131772907396</v>
+        <v>260.3743072823424</v>
       </c>
       <c r="H44" t="n">
         <v>173.120673372854</v>
@@ -4031,7 +4031,7 @@
         <v>68.79103913223841</v>
       </c>
       <c r="U44" t="n">
-        <v>101.2460741732367</v>
+        <v>80.1849441816334</v>
       </c>
       <c r="V44" t="n">
         <v>182.5606578868569</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.91821485099607</v>
+        <v>41.91821485099608</v>
       </c>
       <c r="S45" t="n">
         <v>146.1054229501925</v>
@@ -4150,7 +4150,7 @@
         <v>15.94855614242753</v>
       </c>
       <c r="H46" t="n">
-        <v>4.656988441080386</v>
+        <v>4.656988441080387</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4802,34 +4802,34 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N8" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O8" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T8" t="n">
         <v>21.02234760148574</v>
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="K9" t="n">
-        <v>20.6199382928386</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M9" t="n">
         <v>30.12913313662339</v>
@@ -4896,37 +4896,37 @@
         <v>30.12913313662339</v>
       </c>
       <c r="O9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="V9" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>19.81714183287421</v>
       </c>
-      <c r="T9" t="n">
-        <v>9.70635518344859</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.8007743026345088</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8007743026345088</v>
+        <v>19.81714183287421</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="C10" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
@@ -4981,31 +4981,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="R10" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S10" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T10" t="n">
         <v>29.92792848229982</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="W10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="X10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="Y10" t="n">
         <v>19.81714183287421</v>
-      </c>
-      <c r="S10" t="n">
-        <v>19.81714183287421</v>
-      </c>
-      <c r="T10" t="n">
-        <v>19.81714183287421</v>
-      </c>
-      <c r="U10" t="n">
-        <v>19.81714183287421</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1542.061558720441</v>
+        <v>909.2239119350488</v>
       </c>
       <c r="C11" t="n">
-        <v>1264.050868271018</v>
+        <v>631.2132214856258</v>
       </c>
       <c r="D11" t="n">
-        <v>995.1499717160114</v>
+        <v>362.3123249306191</v>
       </c>
       <c r="E11" t="n">
-        <v>704.2873200398876</v>
+        <v>362.3123249306191</v>
       </c>
       <c r="F11" t="n">
-        <v>394.0591975678275</v>
+        <v>362.3123249306191</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8288421337306</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="H11" t="n">
-        <v>99.3079741403738</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I11" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J11" t="n">
         <v>166.3325567942737</v>
       </c>
       <c r="K11" t="n">
-        <v>471.9342380624213</v>
+        <v>471.9342380624214</v>
       </c>
       <c r="L11" t="n">
         <v>901.0301537238731</v>
       </c>
       <c r="M11" t="n">
-        <v>1218.791122274613</v>
+        <v>1384.631696189668</v>
       </c>
       <c r="N11" t="n">
-        <v>1688.947014893113</v>
+        <v>1854.787588808169</v>
       </c>
       <c r="O11" t="n">
-        <v>2080.658902919563</v>
+        <v>2246.499476834619</v>
       </c>
       <c r="P11" t="n">
-        <v>2382.818476914261</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="Q11" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="R11" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="S11" t="n">
-        <v>2461.482707231158</v>
+        <v>2527.795972318006</v>
       </c>
       <c r="T11" t="n">
-        <v>2343.345308167716</v>
+        <v>2409.658573254564</v>
       </c>
       <c r="U11" t="n">
-        <v>2343.345308167716</v>
+        <v>2258.738310513346</v>
       </c>
       <c r="V11" t="n">
-        <v>2110.289102281427</v>
+        <v>2025.682104627057</v>
       </c>
       <c r="W11" t="n">
-        <v>2110.289102281427</v>
+        <v>1767.070242702428</v>
       </c>
       <c r="X11" t="n">
-        <v>1832.18203002069</v>
+        <v>1488.963170441691</v>
       </c>
       <c r="Y11" t="n">
-        <v>1832.18203002069</v>
+        <v>1199.344383235298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3024976092601</v>
+        <v>917.3024976092605</v>
       </c>
       <c r="C12" t="n">
-        <v>755.5988248502149</v>
+        <v>755.5988248502154</v>
       </c>
       <c r="D12" t="n">
-        <v>616.7601878404269</v>
+        <v>616.7601878404273</v>
       </c>
       <c r="E12" t="n">
-        <v>469.732177897298</v>
+        <v>469.7321778972985</v>
       </c>
       <c r="F12" t="n">
-        <v>335.0383798471723</v>
+        <v>335.0383798471728</v>
       </c>
       <c r="G12" t="n">
-        <v>206.590815262183</v>
+        <v>206.5908152621832</v>
       </c>
       <c r="H12" t="n">
-        <v>109.366202250025</v>
+        <v>109.3662022500246</v>
       </c>
       <c r="I12" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J12" t="n">
         <v>136.9246629279517</v>
       </c>
       <c r="K12" t="n">
-        <v>410.8773587805414</v>
+        <v>410.8773587805415</v>
       </c>
       <c r="L12" t="n">
         <v>836.4840425765722</v>
@@ -5133,22 +5133,22 @@
         <v>1527.518337461819</v>
       </c>
       <c r="O12" t="n">
-        <v>1985.229815181431</v>
+        <v>1985.229815181432</v>
       </c>
       <c r="P12" t="n">
-        <v>2339.904510421073</v>
+        <v>2339.904510421074</v>
       </c>
       <c r="Q12" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="R12" t="n">
         <v>2490.482028352572</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.900793049347</v>
+        <v>2342.900793049348</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.348055991632</v>
+        <v>2155.348055991633</v>
       </c>
       <c r="U12" t="n">
         <v>1936.871746181504</v>
@@ -5160,7 +5160,7 @@
         <v>1467.160254863148</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.243266740942</v>
+        <v>1269.243266740943</v>
       </c>
       <c r="Y12" t="n">
         <v>1076.721940390521</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.4554586426413</v>
+        <v>413.4554586426411</v>
       </c>
       <c r="C13" t="n">
-        <v>347.7625573220912</v>
+        <v>347.7625573220911</v>
       </c>
       <c r="D13" t="n">
-        <v>298.6137323676236</v>
+        <v>298.6137323676235</v>
       </c>
       <c r="E13" t="n">
-        <v>250.5277863467121</v>
+        <v>250.527786346712</v>
       </c>
       <c r="F13" t="n">
-        <v>201.9701995902589</v>
+        <v>201.9701995902586</v>
       </c>
       <c r="G13" t="n">
         <v>137.2090459710701</v>
       </c>
       <c r="H13" t="n">
-        <v>83.8535162926362</v>
+        <v>83.85351629263619</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J13" t="n">
-        <v>109.9697475186646</v>
+        <v>109.9697475186649</v>
       </c>
       <c r="K13" t="n">
-        <v>272.2483234866639</v>
+        <v>272.2483234866643</v>
       </c>
       <c r="L13" t="n">
-        <v>509.0299864554742</v>
+        <v>509.0299864554745</v>
       </c>
       <c r="M13" t="n">
-        <v>765.0636815410722</v>
+        <v>765.0636815410726</v>
       </c>
       <c r="N13" t="n">
         <v>1020.665809313154</v>
       </c>
       <c r="O13" t="n">
-        <v>1253.612613118797</v>
+        <v>1253.612613118798</v>
       </c>
       <c r="P13" t="n">
         <v>1446.355121992754</v>
@@ -5221,10 +5221,10 @@
         <v>1529.769359336121</v>
       </c>
       <c r="R13" t="n">
-        <v>1494.760787341161</v>
+        <v>1494.760787341162</v>
       </c>
       <c r="S13" t="n">
-        <v>1389.078682657004</v>
+        <v>1389.078682657005</v>
       </c>
       <c r="T13" t="n">
         <v>1260.829139451727</v>
@@ -5233,16 +5233,16 @@
         <v>1077.574815074698</v>
       </c>
       <c r="V13" t="n">
-        <v>920.7625788508903</v>
+        <v>920.7625788508901</v>
       </c>
       <c r="W13" t="n">
-        <v>738.5292455860592</v>
+        <v>738.529245586059</v>
       </c>
       <c r="X13" t="n">
-        <v>611.1998496992047</v>
+        <v>611.1998496992045</v>
       </c>
       <c r="Y13" t="n">
-        <v>493.0877591092515</v>
+        <v>493.0877591092513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1192.358671392974</v>
+        <v>1733.835554076589</v>
       </c>
       <c r="C14" t="n">
-        <v>1192.358671392974</v>
+        <v>1455.824863627166</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.358671392974</v>
+        <v>1186.923967072159</v>
       </c>
       <c r="E14" t="n">
-        <v>901.4960197168505</v>
+        <v>896.0613153960355</v>
       </c>
       <c r="F14" t="n">
-        <v>591.2678972447904</v>
+        <v>585.8331929239755</v>
       </c>
       <c r="G14" t="n">
-        <v>279.6120455044756</v>
+        <v>274.1773411836607</v>
       </c>
       <c r="H14" t="n">
-        <v>56.09117751111792</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I14" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J14" t="n">
-        <v>150.4971654801512</v>
+        <v>166.3325567942737</v>
       </c>
       <c r="K14" t="n">
-        <v>456.0988467482989</v>
+        <v>306.0936641473659</v>
       </c>
       <c r="L14" t="n">
-        <v>885.1947624097506</v>
+        <v>735.1895798088176</v>
       </c>
       <c r="M14" t="n">
-        <v>1368.796304875546</v>
+        <v>1218.791122274613</v>
       </c>
       <c r="N14" t="n">
-        <v>1838.952197494046</v>
+        <v>1688.947014893113</v>
       </c>
       <c r="O14" t="n">
-        <v>2230.664085520496</v>
+        <v>2080.658902919563</v>
       </c>
       <c r="P14" t="n">
-        <v>2532.823659515194</v>
+        <v>2382.818476914261</v>
       </c>
       <c r="Q14" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="R14" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="S14" t="n">
-        <v>2532.823659515194</v>
+        <v>2461.482707231159</v>
       </c>
       <c r="T14" t="n">
-        <v>2414.686260451753</v>
+        <v>2461.482707231159</v>
       </c>
       <c r="U14" t="n">
-        <v>2263.765997710535</v>
+        <v>2313.574812583231</v>
       </c>
       <c r="V14" t="n">
-        <v>2030.709791824245</v>
+        <v>2313.574812583231</v>
       </c>
       <c r="W14" t="n">
-        <v>1772.097929899616</v>
+        <v>2313.574812583231</v>
       </c>
       <c r="X14" t="n">
-        <v>1772.097929899616</v>
+        <v>2313.574812583231</v>
       </c>
       <c r="Y14" t="n">
-        <v>1482.479142693224</v>
+        <v>2023.956025376838</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>109.3662022500246</v>
       </c>
       <c r="I15" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J15" t="n">
         <v>136.9246629279517</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.4554586426405</v>
+        <v>413.4554586426414</v>
       </c>
       <c r="C16" t="n">
-        <v>347.7625573220904</v>
+        <v>347.7625573220914</v>
       </c>
       <c r="D16" t="n">
-        <v>298.6137323676228</v>
+        <v>298.6137323676238</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5277863467113</v>
+        <v>250.5277863467123</v>
       </c>
       <c r="F16" t="n">
-        <v>201.970199590258</v>
+        <v>201.9701995902591</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2090459710694</v>
+        <v>137.2090459710702</v>
       </c>
       <c r="H16" t="n">
-        <v>83.85351629263573</v>
+        <v>83.85351629263624</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9697475186647</v>
+        <v>109.9697475186649</v>
       </c>
       <c r="K16" t="n">
-        <v>272.2483234866639</v>
+        <v>272.2483234866643</v>
       </c>
       <c r="L16" t="n">
-        <v>509.0299864554742</v>
+        <v>509.0299864554745</v>
       </c>
       <c r="M16" t="n">
-        <v>765.0636815410721</v>
+        <v>765.0636815410725</v>
       </c>
       <c r="N16" t="n">
         <v>1020.665809313154</v>
       </c>
       <c r="O16" t="n">
-        <v>1253.612613118797</v>
+        <v>1253.612613118798</v>
       </c>
       <c r="P16" t="n">
         <v>1446.355121992754</v>
@@ -5461,7 +5461,7 @@
         <v>1494.760787341161</v>
       </c>
       <c r="S16" t="n">
-        <v>1389.078682657004</v>
+        <v>1389.078682657005</v>
       </c>
       <c r="T16" t="n">
         <v>1260.829139451727</v>
@@ -5470,16 +5470,16 @@
         <v>1077.574815074698</v>
       </c>
       <c r="V16" t="n">
-        <v>920.7625788508898</v>
+        <v>920.7625788508906</v>
       </c>
       <c r="W16" t="n">
-        <v>738.5292455860586</v>
+        <v>738.5292455860593</v>
       </c>
       <c r="X16" t="n">
-        <v>611.1998496992039</v>
+        <v>611.1998496992047</v>
       </c>
       <c r="Y16" t="n">
-        <v>493.0877591092506</v>
+        <v>493.0877591092515</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1257.244551598676</v>
+        <v>1423.085125513733</v>
       </c>
       <c r="C17" t="n">
-        <v>1031.025599243063</v>
+        <v>1196.86617315812</v>
       </c>
       <c r="D17" t="n">
-        <v>813.9164407818655</v>
+        <v>979.7570146969222</v>
       </c>
       <c r="E17" t="n">
-        <v>574.8455271995514</v>
+        <v>740.6861011146081</v>
       </c>
       <c r="F17" t="n">
-        <v>482.2497167363567</v>
+        <v>482.2497167363574</v>
       </c>
       <c r="G17" t="n">
-        <v>222.3856030898513</v>
+        <v>222.3856030898514</v>
       </c>
       <c r="H17" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I17" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J17" t="n">
         <v>166.3325567942737</v>
@@ -5525,40 +5525,40 @@
         <v>1384.631696189668</v>
       </c>
       <c r="N17" t="n">
-        <v>1854.787588808169</v>
+        <v>1838.952197494047</v>
       </c>
       <c r="O17" t="n">
-        <v>2080.658902919563</v>
+        <v>2230.664085520497</v>
       </c>
       <c r="P17" t="n">
-        <v>2382.818476914261</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="Q17" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="R17" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="S17" t="n">
         <v>2513.274445324968</v>
       </c>
       <c r="T17" t="n">
-        <v>2446.928784355335</v>
+        <v>2446.928784355336</v>
       </c>
       <c r="U17" t="n">
         <v>2347.800259707927</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.535791915447</v>
+        <v>2332.376365830504</v>
       </c>
       <c r="W17" t="n">
-        <v>1959.715668084627</v>
+        <v>2125.556241999684</v>
       </c>
       <c r="X17" t="n">
-        <v>1733.4003339177</v>
+        <v>1899.240907832756</v>
       </c>
       <c r="Y17" t="n">
-        <v>1495.573284805117</v>
+        <v>1661.413858720173</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>109.3662022500246</v>
       </c>
       <c r="I18" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J18" t="n">
-        <v>50.65647319030388</v>
+        <v>136.9246629279517</v>
       </c>
       <c r="K18" t="n">
-        <v>324.6091690428936</v>
+        <v>136.9246629279517</v>
       </c>
       <c r="L18" t="n">
-        <v>750.2158528389243</v>
+        <v>562.5313467239823</v>
       </c>
       <c r="M18" t="n">
-        <v>1305.01529315693</v>
+        <v>1117.330787041988</v>
       </c>
       <c r="N18" t="n">
-        <v>1887.893526810163</v>
+        <v>1700.209020695221</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.605004529775</v>
+        <v>2157.920498414833</v>
       </c>
       <c r="P18" t="n">
-        <v>2532.823659515194</v>
+        <v>2512.595193654475</v>
       </c>
       <c r="Q18" t="n">
         <v>2532.823659515194</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.09084352704831</v>
+        <v>79.09084352704841</v>
       </c>
       <c r="C19" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="D19" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="E19" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="F19" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="G19" t="n">
-        <v>52.22026477492843</v>
+        <v>52.22026477492847</v>
       </c>
       <c r="H19" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J19" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0800499980671</v>
+        <v>111.0800499980672</v>
       </c>
       <c r="L19" t="n">
-        <v>246.0067138066413</v>
+        <v>246.0067138066414</v>
       </c>
       <c r="M19" t="n">
-        <v>400.1854097320032</v>
+        <v>400.1854097320033</v>
       </c>
       <c r="N19" t="n">
         <v>553.932538343849</v>
@@ -5698,25 +5698,25 @@
         <v>775.9118527029765</v>
       </c>
       <c r="S19" t="n">
-        <v>722.0214861126294</v>
+        <v>692.1719008847467</v>
       </c>
       <c r="T19" t="n">
-        <v>645.5636810011609</v>
+        <v>615.7140957732782</v>
       </c>
       <c r="U19" t="n">
-        <v>484.2515094900583</v>
+        <v>484.2515094900585</v>
       </c>
       <c r="V19" t="n">
-        <v>379.2310113600599</v>
+        <v>379.2310113600602</v>
       </c>
       <c r="W19" t="n">
-        <v>248.7894161890381</v>
+        <v>248.7894161890383</v>
       </c>
       <c r="X19" t="n">
-        <v>173.2517583959929</v>
+        <v>173.2517583959931</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.9314058998491</v>
+        <v>106.9314058998492</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1423.085125513734</v>
+        <v>1257.244551598677</v>
       </c>
       <c r="C20" t="n">
-        <v>1196.86617315812</v>
+        <v>1031.025599243064</v>
       </c>
       <c r="D20" t="n">
-        <v>979.7570146969226</v>
+        <v>813.9164407818666</v>
       </c>
       <c r="E20" t="n">
-        <v>740.6861011146083</v>
+        <v>574.8455271995522</v>
       </c>
       <c r="F20" t="n">
-        <v>482.2497167363579</v>
+        <v>482.2497167363568</v>
       </c>
       <c r="G20" t="n">
-        <v>222.3856030898513</v>
+        <v>222.3856030898514</v>
       </c>
       <c r="H20" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I20" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J20" t="n">
-        <v>166.3325567942737</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="K20" t="n">
-        <v>306.0936641473659</v>
+        <v>356.2581544584516</v>
       </c>
       <c r="L20" t="n">
-        <v>735.1895798088176</v>
+        <v>785.3540701199033</v>
       </c>
       <c r="M20" t="n">
-        <v>1218.791122274613</v>
+        <v>1268.955612585699</v>
       </c>
       <c r="N20" t="n">
-        <v>1688.947014893113</v>
+        <v>1739.111505204199</v>
       </c>
       <c r="O20" t="n">
-        <v>2080.658902919563</v>
+        <v>2130.823393230648</v>
       </c>
       <c r="P20" t="n">
-        <v>2382.818476914261</v>
+        <v>2432.982967225346</v>
       </c>
       <c r="Q20" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="R20" t="n">
-        <v>2532.823659515194</v>
+        <v>2532.823659515195</v>
       </c>
       <c r="S20" t="n">
-        <v>2532.823659515194</v>
+        <v>2513.274445324968</v>
       </c>
       <c r="T20" t="n">
-        <v>2513.640833622983</v>
+        <v>2446.928784355336</v>
       </c>
       <c r="U20" t="n">
-        <v>2513.640833622983</v>
+        <v>2347.800259707928</v>
       </c>
       <c r="V20" t="n">
-        <v>2332.376365830504</v>
+        <v>2166.535791915448</v>
       </c>
       <c r="W20" t="n">
-        <v>2125.556241999684</v>
+        <v>1959.715668084628</v>
       </c>
       <c r="X20" t="n">
-        <v>1899.240907832756</v>
+        <v>1733.4003339177</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.413858720173</v>
+        <v>1495.573284805118</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>109.3662022500246</v>
       </c>
       <c r="I21" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J21" t="n">
-        <v>136.9246629279517</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8773587805414</v>
+        <v>324.6091690428937</v>
       </c>
       <c r="L21" t="n">
-        <v>836.4840425765722</v>
+        <v>750.2158528389243</v>
       </c>
       <c r="M21" t="n">
-        <v>1391.283482894578</v>
+        <v>944.640103808586</v>
       </c>
       <c r="N21" t="n">
         <v>1527.518337461819</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.09084352704831</v>
+        <v>108.940428754931</v>
       </c>
       <c r="C22" t="n">
-        <v>65.18968030030766</v>
+        <v>95.03926552819033</v>
       </c>
       <c r="D22" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="E22" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="F22" t="n">
-        <v>65.18968030030766</v>
+        <v>65.18968030030773</v>
       </c>
       <c r="G22" t="n">
-        <v>52.22026477492843</v>
+        <v>52.22026477492847</v>
       </c>
       <c r="H22" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="J22" t="n">
-        <v>50.65647319030388</v>
+        <v>50.6564731903039</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0800499980671</v>
+        <v>111.0800499980672</v>
       </c>
       <c r="L22" t="n">
-        <v>246.0067138066413</v>
+        <v>246.0067138066414</v>
       </c>
       <c r="M22" t="n">
-        <v>400.1854097320032</v>
+        <v>400.1854097320033</v>
       </c>
       <c r="N22" t="n">
         <v>553.932538343849</v>
@@ -5935,25 +5935,25 @@
         <v>775.9118527029765</v>
       </c>
       <c r="S22" t="n">
-        <v>692.1719008847464</v>
+        <v>722.0214861126293</v>
       </c>
       <c r="T22" t="n">
-        <v>615.7140957732779</v>
+        <v>645.5636810011608</v>
       </c>
       <c r="U22" t="n">
-        <v>484.2515094900583</v>
+        <v>514.1010947179411</v>
       </c>
       <c r="V22" t="n">
-        <v>379.2310113600599</v>
+        <v>409.0805965879428</v>
       </c>
       <c r="W22" t="n">
-        <v>248.7894161890381</v>
+        <v>278.6390014169209</v>
       </c>
       <c r="X22" t="n">
-        <v>173.2517583959929</v>
+        <v>203.1013436238757</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.9314058998491</v>
+        <v>136.7809911277318</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1426.469627022202</v>
+        <v>1426.469627022203</v>
       </c>
       <c r="C23" t="n">
-        <v>1200.250674666589</v>
+        <v>1200.25067466659</v>
       </c>
       <c r="D23" t="n">
-        <v>983.1415162053916</v>
+        <v>983.1415162053927</v>
       </c>
       <c r="E23" t="n">
-        <v>744.0706026230775</v>
+        <v>744.0706026230786</v>
       </c>
       <c r="F23" t="n">
-        <v>485.6342182448275</v>
+        <v>485.6342182448279</v>
       </c>
       <c r="G23" t="n">
         <v>225.7701045983219</v>
       </c>
       <c r="H23" t="n">
-        <v>54.04097469877445</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="I23" t="n">
-        <v>54.04097469877445</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7170583027442</v>
+        <v>169.7170583027441</v>
       </c>
       <c r="K23" t="n">
-        <v>475.3187395708919</v>
+        <v>475.3187395708918</v>
       </c>
       <c r="L23" t="n">
-        <v>904.4146552323455</v>
+        <v>904.4146552323435</v>
       </c>
       <c r="M23" t="n">
-        <v>1388.016197698141</v>
+        <v>1388.016197698139</v>
       </c>
       <c r="N23" t="n">
-        <v>1858.172090316641</v>
+        <v>1858.17209031664</v>
       </c>
       <c r="O23" t="n">
-        <v>2249.88397834309</v>
+        <v>2249.883978343089</v>
       </c>
       <c r="P23" t="n">
-        <v>2552.043552337789</v>
+        <v>2552.043552337788</v>
       </c>
       <c r="Q23" t="n">
-        <v>2702.048734938722</v>
+        <v>2702.048734938721</v>
       </c>
       <c r="R23" t="n">
-        <v>2702.048734938722</v>
+        <v>2702.048734938721</v>
       </c>
       <c r="S23" t="n">
-        <v>2682.499520748496</v>
+        <v>2682.499520748495</v>
       </c>
       <c r="T23" t="n">
         <v>2616.153859778862</v>
       </c>
       <c r="U23" t="n">
-        <v>2517.025335131453</v>
+        <v>2517.025335131454</v>
       </c>
       <c r="V23" t="n">
-        <v>2335.760867338973</v>
+        <v>2335.760867338974</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.940743508153</v>
+        <v>2128.940743508154</v>
       </c>
       <c r="X23" t="n">
-        <v>1902.625409341225</v>
+        <v>1902.625409341226</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.798360228642</v>
+        <v>1664.798360228643</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.6869991177301</v>
+        <v>920.6869991177299</v>
       </c>
       <c r="C24" t="n">
-        <v>758.9833263586848</v>
+        <v>758.9833263586846</v>
       </c>
       <c r="D24" t="n">
-        <v>620.1446893488969</v>
+        <v>620.1446893488967</v>
       </c>
       <c r="E24" t="n">
-        <v>473.1166794057681</v>
+        <v>473.116679405768</v>
       </c>
       <c r="F24" t="n">
-        <v>338.4228813556424</v>
+        <v>338.4228813556423</v>
       </c>
       <c r="G24" t="n">
-        <v>209.9753167706531</v>
+        <v>209.975316770653</v>
       </c>
       <c r="H24" t="n">
         <v>112.7507037584951</v>
       </c>
       <c r="I24" t="n">
-        <v>54.04097469877445</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="J24" t="n">
-        <v>140.3091644364223</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="K24" t="n">
-        <v>414.261860289012</v>
+        <v>327.9936705513642</v>
       </c>
       <c r="L24" t="n">
-        <v>414.261860289012</v>
+        <v>753.6003543473948</v>
       </c>
       <c r="M24" t="n">
-        <v>969.0613006070178</v>
+        <v>1308.399794665401</v>
       </c>
       <c r="N24" t="n">
-        <v>1551.939534260251</v>
+        <v>1530.90283897029</v>
       </c>
       <c r="O24" t="n">
-        <v>2009.651011979863</v>
+        <v>1988.614316689902</v>
       </c>
       <c r="P24" t="n">
         <v>2343.289011929544</v>
@@ -6096,13 +6096,13 @@
         <v>2346.285294557818</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.732557500103</v>
+        <v>2158.732557500102</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.256247689974</v>
+        <v>1940.256247689973</v>
       </c>
       <c r="V24" t="n">
-        <v>1711.860625138308</v>
+        <v>1711.860625138307</v>
       </c>
       <c r="W24" t="n">
         <v>1470.544756371617</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.50974628537048</v>
+        <v>112.3249302634018</v>
       </c>
       <c r="C25" t="n">
-        <v>79.60858305862983</v>
+        <v>98.42376703666113</v>
       </c>
       <c r="D25" t="n">
-        <v>79.60858305862983</v>
+        <v>98.42376703666113</v>
       </c>
       <c r="E25" t="n">
-        <v>79.60858305862983</v>
+        <v>68.57418180877821</v>
       </c>
       <c r="F25" t="n">
-        <v>79.60858305862983</v>
+        <v>68.57418180877821</v>
       </c>
       <c r="G25" t="n">
-        <v>66.6391675332506</v>
+        <v>55.60476628339897</v>
       </c>
       <c r="H25" t="n">
-        <v>65.07537594862606</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="I25" t="n">
-        <v>65.07537594862606</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="J25" t="n">
-        <v>54.04097469877445</v>
+        <v>54.04097469877443</v>
       </c>
       <c r="K25" t="n">
         <v>114.4645515065377</v>
@@ -6154,43 +6154,43 @@
         <v>249.3912153151119</v>
       </c>
       <c r="M25" t="n">
-        <v>403.5699112404739</v>
+        <v>403.5699112404738</v>
       </c>
       <c r="N25" t="n">
-        <v>557.3170398523197</v>
+        <v>557.3170398523196</v>
       </c>
       <c r="O25" t="n">
-        <v>688.4088444977267</v>
+        <v>688.4088444977266</v>
       </c>
       <c r="P25" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="Q25" t="n">
-        <v>760.4811702334157</v>
+        <v>779.296354211447</v>
       </c>
       <c r="R25" t="n">
-        <v>760.4811702334157</v>
+        <v>779.296354211447</v>
       </c>
       <c r="S25" t="n">
-        <v>706.5908036430686</v>
+        <v>725.4059876210999</v>
       </c>
       <c r="T25" t="n">
-        <v>630.1329985316002</v>
+        <v>648.9481825096315</v>
       </c>
       <c r="U25" t="n">
-        <v>498.6704122483804</v>
+        <v>517.4855962264118</v>
       </c>
       <c r="V25" t="n">
-        <v>393.6499141183821</v>
+        <v>412.4650980964134</v>
       </c>
       <c r="W25" t="n">
-        <v>263.2083189473603</v>
+        <v>282.0235029253916</v>
       </c>
       <c r="X25" t="n">
-        <v>187.6706611543151</v>
+        <v>206.4858451323464</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.3503086581712</v>
+        <v>140.1654926362025</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1799.445717591107</v>
+        <v>1750.794216641038</v>
       </c>
       <c r="C26" t="n">
-        <v>1521.435027141684</v>
+        <v>1472.783526191615</v>
       </c>
       <c r="D26" t="n">
-        <v>1252.534130586678</v>
+        <v>1203.882629636608</v>
       </c>
       <c r="E26" t="n">
-        <v>961.671478910554</v>
+        <v>913.0199779604843</v>
       </c>
       <c r="F26" t="n">
-        <v>651.443356438494</v>
+        <v>602.7918554884244</v>
       </c>
       <c r="G26" t="n">
-        <v>339.7875046981791</v>
+        <v>291.1360037481087</v>
       </c>
       <c r="H26" t="n">
-        <v>116.2666367048218</v>
+        <v>67.61513575475193</v>
       </c>
       <c r="I26" t="n">
         <v>67.61513575475193</v>
       </c>
       <c r="J26" t="n">
-        <v>285.1462185189578</v>
+        <v>191.9483435507674</v>
       </c>
       <c r="K26" t="n">
-        <v>692.6028989473414</v>
+        <v>599.4050239791511</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.553813769029</v>
+        <v>1130.355938800839</v>
       </c>
       <c r="M26" t="n">
-        <v>1809.010355395061</v>
+        <v>1613.957481266634</v>
       </c>
       <c r="N26" t="n">
-        <v>2381.021247173797</v>
+        <v>2185.968373045371</v>
       </c>
       <c r="O26" t="n">
-        <v>2874.588134360482</v>
+        <v>2679.535260232056</v>
       </c>
       <c r="P26" t="n">
-        <v>3176.747708355181</v>
+        <v>3083.54983338699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3335.410015148159</v>
+        <v>3335.41001514816</v>
       </c>
       <c r="R26" t="n">
-        <v>3380.756787737596</v>
+        <v>3380.756787737597</v>
       </c>
       <c r="S26" t="n">
-        <v>3309.41583545356</v>
+        <v>3369.366277023995</v>
       </c>
       <c r="T26" t="n">
-        <v>3191.278436390118</v>
+        <v>3251.228877960553</v>
       </c>
       <c r="U26" t="n">
-        <v>3040.3581736489</v>
+        <v>3100.308615219335</v>
       </c>
       <c r="V26" t="n">
-        <v>2915.903910283116</v>
+        <v>2867.252409333046</v>
       </c>
       <c r="W26" t="n">
-        <v>2657.292048358486</v>
+        <v>2608.640547408416</v>
       </c>
       <c r="X26" t="n">
-        <v>2379.184976097749</v>
+        <v>2330.533475147679</v>
       </c>
       <c r="Y26" t="n">
-        <v>2089.566188891357</v>
+        <v>2040.914687941287</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>67.61513575475193</v>
       </c>
       <c r="K27" t="n">
-        <v>67.61513575475193</v>
+        <v>174.1117913531186</v>
       </c>
       <c r="L27" t="n">
-        <v>493.2218195507826</v>
+        <v>599.7184751491493</v>
       </c>
       <c r="M27" t="n">
-        <v>1048.021259868788</v>
+        <v>1154.517915467155</v>
       </c>
       <c r="N27" t="n">
-        <v>1630.899493522021</v>
+        <v>1737.396149120388</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.610971241633</v>
+        <v>2195.10762684</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.285666481275</v>
+        <v>2549.782322079642</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.782322079642</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.4141212070891</v>
+        <v>430.414121207089</v>
       </c>
       <c r="C28" t="n">
-        <v>364.7212198865391</v>
+        <v>364.721219886539</v>
       </c>
       <c r="D28" t="n">
-        <v>315.5723949320715</v>
+        <v>315.5723949320714</v>
       </c>
       <c r="E28" t="n">
-        <v>267.48644891116</v>
+        <v>267.4864489111599</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9288621547068</v>
+        <v>218.9288621547067</v>
       </c>
       <c r="G28" t="n">
-        <v>154.1677085355182</v>
+        <v>154.1677085355181</v>
       </c>
       <c r="H28" t="n">
         <v>100.8121788570842</v>
@@ -6382,16 +6382,16 @@
         <v>67.61513575475193</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9284100831128</v>
+        <v>126.9284100831127</v>
       </c>
       <c r="K28" t="n">
-        <v>289.2069860511122</v>
+        <v>289.206986051112</v>
       </c>
       <c r="L28" t="n">
-        <v>525.9886490199224</v>
+        <v>525.9886490199223</v>
       </c>
       <c r="M28" t="n">
-        <v>782.0223441055202</v>
+        <v>782.0223441055201</v>
       </c>
       <c r="N28" t="n">
         <v>1037.624471877602</v>
@@ -6406,7 +6406,7 @@
         <v>1546.728021900569</v>
       </c>
       <c r="R28" t="n">
-        <v>1511.719449905609</v>
+        <v>1511.71944990561</v>
       </c>
       <c r="S28" t="n">
         <v>1406.037345221453</v>
@@ -6418,16 +6418,16 @@
         <v>1094.533477639146</v>
       </c>
       <c r="V28" t="n">
-        <v>937.7212414153383</v>
+        <v>937.7212414153385</v>
       </c>
       <c r="W28" t="n">
-        <v>755.4879081505071</v>
+        <v>755.4879081505073</v>
       </c>
       <c r="X28" t="n">
-        <v>628.1585122636526</v>
+        <v>628.1585122636524</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.0464216736993</v>
+        <v>510.0464216736991</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1799.445717591107</v>
+        <v>1750.794216641037</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.435027141684</v>
+        <v>1472.783526191614</v>
       </c>
       <c r="D29" t="n">
-        <v>1252.534130586677</v>
+        <v>1203.882629636607</v>
       </c>
       <c r="E29" t="n">
-        <v>961.6714789105533</v>
+        <v>913.0199779604834</v>
       </c>
       <c r="F29" t="n">
-        <v>651.4433564384933</v>
+        <v>602.7918554884235</v>
       </c>
       <c r="G29" t="n">
-        <v>339.7875046981786</v>
+        <v>291.1360037481087</v>
       </c>
       <c r="H29" t="n">
-        <v>116.2666367048218</v>
+        <v>67.61513575475193</v>
       </c>
       <c r="I29" t="n">
         <v>67.61513575475193</v>
       </c>
       <c r="J29" t="n">
-        <v>285.1462185189578</v>
+        <v>191.9483435507672</v>
       </c>
       <c r="K29" t="n">
-        <v>692.6028989473416</v>
+        <v>497.5500248189148</v>
       </c>
       <c r="L29" t="n">
-        <v>1223.55381376903</v>
+        <v>1028.500939640603</v>
       </c>
       <c r="M29" t="n">
-        <v>1707.155356234825</v>
+        <v>1613.957481266634</v>
       </c>
       <c r="N29" t="n">
-        <v>2231.315145634807</v>
+        <v>2185.968373045371</v>
       </c>
       <c r="O29" t="n">
-        <v>2724.882032821493</v>
+        <v>2679.535260232056</v>
       </c>
       <c r="P29" t="n">
-        <v>3128.896605976427</v>
+        <v>3083.54983338699</v>
       </c>
       <c r="Q29" t="n">
-        <v>3380.756787737596</v>
+        <v>3335.41001514816</v>
       </c>
       <c r="R29" t="n">
-        <v>3380.756787737596</v>
+        <v>3380.756787737597</v>
       </c>
       <c r="S29" t="n">
-        <v>3309.41583545356</v>
+        <v>3369.366277023993</v>
       </c>
       <c r="T29" t="n">
-        <v>3191.278436390118</v>
+        <v>3251.228877960551</v>
       </c>
       <c r="U29" t="n">
-        <v>3040.3581736489</v>
+        <v>3100.308615219334</v>
       </c>
       <c r="V29" t="n">
-        <v>2915.903910283115</v>
+        <v>2867.252409333045</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.292048358485</v>
+        <v>2608.640547408415</v>
       </c>
       <c r="X29" t="n">
-        <v>2379.184976097748</v>
+        <v>2330.533475147678</v>
       </c>
       <c r="Y29" t="n">
-        <v>2089.566188891356</v>
+        <v>2040.914687941286</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>67.61513575475193</v>
       </c>
       <c r="J30" t="n">
-        <v>67.61513575475193</v>
+        <v>153.8833254923998</v>
       </c>
       <c r="K30" t="n">
-        <v>67.61513575475193</v>
+        <v>427.8360213449895</v>
       </c>
       <c r="L30" t="n">
-        <v>493.2218195507826</v>
+        <v>853.4427051410202</v>
       </c>
       <c r="M30" t="n">
-        <v>1048.021259868788</v>
+        <v>1408.242145459026</v>
       </c>
       <c r="N30" t="n">
-        <v>1630.899493522021</v>
+        <v>1544.477000026267</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.610971241634</v>
+        <v>2002.188477745879</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.285666481276</v>
+        <v>2356.863172985521</v>
       </c>
       <c r="Q30" t="n">
         <v>2549.782322079642</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.4141212070889</v>
+        <v>430.4141212070894</v>
       </c>
       <c r="C31" t="n">
-        <v>364.7212198865389</v>
+        <v>364.7212198865394</v>
       </c>
       <c r="D31" t="n">
-        <v>315.5723949320713</v>
+        <v>315.5723949320718</v>
       </c>
       <c r="E31" t="n">
-        <v>267.4864489111599</v>
+        <v>267.4864489111604</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9288621547067</v>
+        <v>218.9288621547072</v>
       </c>
       <c r="G31" t="n">
-        <v>154.1677085355181</v>
+        <v>154.1677085355186</v>
       </c>
       <c r="H31" t="n">
         <v>100.8121788570842</v>
@@ -6619,31 +6619,31 @@
         <v>67.61513575475193</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9284100831129</v>
+        <v>126.9284100831128</v>
       </c>
       <c r="K31" t="n">
-        <v>289.2069860511119</v>
+        <v>289.2069860511122</v>
       </c>
       <c r="L31" t="n">
-        <v>525.9886490199221</v>
+        <v>525.9886490199225</v>
       </c>
       <c r="M31" t="n">
-        <v>782.0223441055207</v>
+        <v>782.0223441055202</v>
       </c>
       <c r="N31" t="n">
         <v>1037.624471877602</v>
       </c>
       <c r="O31" t="n">
-        <v>1270.571275683246</v>
+        <v>1270.571275683245</v>
       </c>
       <c r="P31" t="n">
         <v>1463.313784557202</v>
       </c>
       <c r="Q31" t="n">
-        <v>1546.72802190057</v>
+        <v>1546.728021900569</v>
       </c>
       <c r="R31" t="n">
-        <v>1511.71944990561</v>
+        <v>1511.719449905609</v>
       </c>
       <c r="S31" t="n">
         <v>1406.037345221453</v>
@@ -6655,16 +6655,16 @@
         <v>1094.533477639146</v>
       </c>
       <c r="V31" t="n">
-        <v>937.7212414153387</v>
+        <v>937.7212414153382</v>
       </c>
       <c r="W31" t="n">
-        <v>755.4879081505076</v>
+        <v>755.487908150507</v>
       </c>
       <c r="X31" t="n">
-        <v>628.1585122636529</v>
+        <v>628.1585122636525</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.046421673699</v>
+        <v>510.0464216736995</v>
       </c>
     </row>
     <row r="32">
@@ -6683,43 +6683,43 @@
         <v>1202.453395167511</v>
       </c>
       <c r="E32" t="n">
-        <v>921.4467357146939</v>
+        <v>921.4467357146933</v>
       </c>
       <c r="F32" t="n">
-        <v>621.0746054659403</v>
+        <v>621.0746054659396</v>
       </c>
       <c r="G32" t="n">
-        <v>319.2747459489317</v>
+        <v>319.2747459489308</v>
       </c>
       <c r="H32" t="n">
-        <v>105.609870178881</v>
+        <v>105.6098701788811</v>
       </c>
       <c r="I32" t="n">
         <v>66.81436145211742</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4904450560872</v>
+        <v>195.8054797109034</v>
       </c>
       <c r="K32" t="n">
-        <v>488.0921263242349</v>
+        <v>612.9220181173496</v>
       </c>
       <c r="L32" t="n">
-        <v>930.5030766405017</v>
+        <v>1042.017933778801</v>
       </c>
       <c r="M32" t="n">
-        <v>1525.619476244596</v>
+        <v>1637.134333382895</v>
       </c>
       <c r="N32" t="n">
-        <v>2107.290226001395</v>
+        <v>2107.290226001396</v>
       </c>
       <c r="O32" t="n">
-        <v>2610.516971166143</v>
+        <v>2610.516971166144</v>
       </c>
       <c r="P32" t="n">
         <v>3024.19140229914</v>
       </c>
       <c r="Q32" t="n">
-        <v>3285.711442038371</v>
+        <v>3285.711442038372</v>
       </c>
       <c r="R32" t="n">
         <v>3340.718072605871</v>
@@ -6777,22 +6777,22 @@
         <v>66.81436145211742</v>
       </c>
       <c r="J33" t="n">
-        <v>66.81436145211742</v>
+        <v>153.0825511897652</v>
       </c>
       <c r="K33" t="n">
-        <v>340.7670573047072</v>
+        <v>153.0825511897652</v>
       </c>
       <c r="L33" t="n">
-        <v>766.373741100738</v>
+        <v>578.6892349857959</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.173181418744</v>
+        <v>1133.488675303802</v>
       </c>
       <c r="N33" t="n">
-        <v>1904.051415071977</v>
+        <v>1716.366908957035</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.387703443245</v>
+        <v>2174.078386676647</v>
       </c>
       <c r="P33" t="n">
         <v>2356.062398682887</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>360.6214013413102</v>
+        <v>360.6214013413109</v>
       </c>
       <c r="C34" t="n">
-        <v>304.7844922440665</v>
+        <v>304.7844922440671</v>
       </c>
       <c r="D34" t="n">
-        <v>265.4916595129052</v>
+        <v>265.4916595129058</v>
       </c>
       <c r="E34" t="n">
-        <v>227.2617057153001</v>
+        <v>227.2617057153005</v>
       </c>
       <c r="F34" t="n">
-        <v>188.5601111821532</v>
+        <v>188.5601111821535</v>
       </c>
       <c r="G34" t="n">
-        <v>133.6549497862709</v>
+        <v>133.6549497862712</v>
       </c>
       <c r="H34" t="n">
-        <v>90.15541233114338</v>
+        <v>90.15541233114348</v>
       </c>
       <c r="I34" t="n">
         <v>66.81436145211742</v>
       </c>
       <c r="J34" t="n">
-        <v>135.7874937585408</v>
+        <v>66.81436145211742</v>
       </c>
       <c r="K34" t="n">
-        <v>307.7259277046027</v>
+        <v>238.7527953981792</v>
       </c>
       <c r="L34" t="n">
-        <v>442.652591513177</v>
+        <v>485.1943163450519</v>
       </c>
       <c r="M34" t="n">
-        <v>708.3461445768376</v>
+        <v>750.8878694087123</v>
       </c>
       <c r="N34" t="n">
-        <v>943.2223433893087</v>
+        <v>1016.149855158857</v>
       </c>
       <c r="O34" t="n">
-        <v>1185.829005173014</v>
+        <v>1147.241659804263</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.231372025033</v>
+        <v>1295.157276703605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1388.231372025033</v>
+        <v>1388.231372025035</v>
       </c>
       <c r="R34" t="n">
-        <v>1363.07879225338</v>
+        <v>1363.078792253381</v>
       </c>
       <c r="S34" t="n">
-        <v>1267.25267979253</v>
+        <v>1267.252679792531</v>
       </c>
       <c r="T34" t="n">
-        <v>1148.859128810558</v>
+        <v>1148.859128810559</v>
       </c>
       <c r="U34" t="n">
-        <v>975.4607966568353</v>
+        <v>975.4607966568365</v>
       </c>
       <c r="V34" t="n">
-        <v>828.504552656334</v>
+        <v>828.504552656335</v>
       </c>
       <c r="W34" t="n">
-        <v>656.1272116148091</v>
+        <v>656.1272116148101</v>
       </c>
       <c r="X34" t="n">
-        <v>538.6538079512609</v>
+        <v>538.6538079512618</v>
       </c>
       <c r="Y34" t="n">
-        <v>430.3977095846139</v>
+        <v>430.3977095846148</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1200.250674666589</v>
       </c>
       <c r="D35" t="n">
-        <v>983.1415162053922</v>
+        <v>983.141516205392</v>
       </c>
       <c r="E35" t="n">
-        <v>744.0706026230782</v>
+        <v>744.070602623078</v>
       </c>
       <c r="F35" t="n">
-        <v>485.6342182448277</v>
+        <v>485.6342182448275</v>
       </c>
       <c r="G35" t="n">
         <v>225.7701045983218</v>
       </c>
       <c r="H35" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I35" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7170583027441</v>
+        <v>169.7170583027438</v>
       </c>
       <c r="K35" t="n">
-        <v>475.3187395708919</v>
+        <v>475.3187395708915</v>
       </c>
       <c r="L35" t="n">
-        <v>904.4146552323436</v>
+        <v>904.4146552323432</v>
       </c>
       <c r="M35" t="n">
         <v>1388.016197698139</v>
@@ -6953,7 +6953,7 @@
         <v>2249.883978343089</v>
       </c>
       <c r="P35" t="n">
-        <v>2552.043552337787</v>
+        <v>2552.043552337786</v>
       </c>
       <c r="Q35" t="n">
         <v>2702.04873493872</v>
@@ -6962,25 +6962,25 @@
         <v>2702.04873493872</v>
       </c>
       <c r="S35" t="n">
-        <v>2682.499520748494</v>
+        <v>2682.499520748493</v>
       </c>
       <c r="T35" t="n">
-        <v>2616.153859778862</v>
+        <v>2616.15385977886</v>
       </c>
       <c r="U35" t="n">
-        <v>2517.025335131453</v>
+        <v>2517.025335131452</v>
       </c>
       <c r="V35" t="n">
-        <v>2335.760867338974</v>
+        <v>2335.760867338973</v>
       </c>
       <c r="W35" t="n">
-        <v>2128.940743508154</v>
+        <v>2128.940743508153</v>
       </c>
       <c r="X35" t="n">
-        <v>1902.625409341226</v>
+        <v>1902.625409341225</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.798360228643</v>
+        <v>1664.798360228642</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.7507037584951</v>
       </c>
       <c r="I36" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J36" t="n">
         <v>140.3091644364222</v>
       </c>
       <c r="K36" t="n">
-        <v>414.261860289012</v>
+        <v>393.225164999051</v>
       </c>
       <c r="L36" t="n">
-        <v>839.8685440850427</v>
+        <v>393.225164999051</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.667984403048</v>
+        <v>948.0246053170567</v>
       </c>
       <c r="N36" t="n">
-        <v>1977.546218056281</v>
+        <v>1530.90283897029</v>
       </c>
       <c r="O36" t="n">
-        <v>2435.257695775894</v>
+        <v>1988.614316689902</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.208161023665</v>
+        <v>2343.289011929544</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.208161023665</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.47534503551866</v>
+        <v>82.47534503551856</v>
       </c>
       <c r="C37" t="n">
-        <v>68.57418180877806</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="D37" t="n">
-        <v>68.57418180877806</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="E37" t="n">
-        <v>68.57418180877806</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="F37" t="n">
-        <v>68.57418180877806</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="G37" t="n">
-        <v>55.60476628339889</v>
+        <v>55.60476628339885</v>
       </c>
       <c r="H37" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I37" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J37" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="K37" t="n">
-        <v>114.4645515065377</v>
+        <v>114.4645515065376</v>
       </c>
       <c r="L37" t="n">
         <v>249.3912153151119</v>
       </c>
       <c r="M37" t="n">
-        <v>403.5699112404739</v>
+        <v>403.5699112404737</v>
       </c>
       <c r="N37" t="n">
-        <v>557.3170398523197</v>
+        <v>557.3170398523196</v>
       </c>
       <c r="O37" t="n">
-        <v>688.4088444977267</v>
+        <v>688.4088444977266</v>
       </c>
       <c r="P37" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="Q37" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="R37" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="S37" t="n">
-        <v>695.5564023932163</v>
+        <v>695.5564023932161</v>
       </c>
       <c r="T37" t="n">
-        <v>619.098597281748</v>
+        <v>619.0985972817477</v>
       </c>
       <c r="U37" t="n">
-        <v>487.6360109985283</v>
+        <v>487.6360109985281</v>
       </c>
       <c r="V37" t="n">
-        <v>382.6155128685301</v>
+        <v>382.6155128685298</v>
       </c>
       <c r="W37" t="n">
-        <v>252.1739176975083</v>
+        <v>252.1739176975081</v>
       </c>
       <c r="X37" t="n">
-        <v>176.6362599044631</v>
+        <v>176.636259904463</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.3159074083194</v>
+        <v>110.3159074083192</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1426.469627022203</v>
       </c>
       <c r="C38" t="n">
-        <v>1200.25067466659</v>
+        <v>1200.250674666589</v>
       </c>
       <c r="D38" t="n">
-        <v>983.1415162053925</v>
+        <v>983.141516205392</v>
       </c>
       <c r="E38" t="n">
-        <v>744.0706026230785</v>
+        <v>744.0706026230778</v>
       </c>
       <c r="F38" t="n">
-        <v>485.634218244828</v>
+        <v>485.6342182448275</v>
       </c>
       <c r="G38" t="n">
-        <v>225.7701045983217</v>
+        <v>225.7701045983218</v>
       </c>
       <c r="H38" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I38" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7170583027438</v>
+        <v>169.7170583027442</v>
       </c>
       <c r="K38" t="n">
-        <v>475.3187395708915</v>
+        <v>475.3187395708918</v>
       </c>
       <c r="L38" t="n">
-        <v>904.4146552323432</v>
+        <v>904.4146552323435</v>
       </c>
       <c r="M38" t="n">
         <v>1388.016197698139</v>
@@ -7190,7 +7190,7 @@
         <v>2249.883978343089</v>
       </c>
       <c r="P38" t="n">
-        <v>2552.043552337787</v>
+        <v>2552.043552337786</v>
       </c>
       <c r="Q38" t="n">
         <v>2702.04873493872</v>
@@ -7248,28 +7248,28 @@
         <v>112.7507037584951</v>
       </c>
       <c r="I39" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J39" t="n">
-        <v>54.04097469877441</v>
+        <v>140.3091644364222</v>
       </c>
       <c r="K39" t="n">
-        <v>54.04097469877441</v>
+        <v>160.5376302971415</v>
       </c>
       <c r="L39" t="n">
-        <v>479.6476584948051</v>
+        <v>586.1443140931722</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.447098812811</v>
+        <v>1140.943754411178</v>
       </c>
       <c r="N39" t="n">
-        <v>1617.325332466044</v>
+        <v>1723.821988064411</v>
       </c>
       <c r="O39" t="n">
-        <v>2075.036810185657</v>
+        <v>2181.533465784023</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.711505425299</v>
+        <v>2536.208161023665</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.208161023665</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.324930263403</v>
+        <v>82.47534503551856</v>
       </c>
       <c r="C40" t="n">
-        <v>98.4237670366625</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="D40" t="n">
-        <v>98.4237670366625</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="E40" t="n">
-        <v>98.4237670366625</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4237670366625</v>
+        <v>68.57418180877799</v>
       </c>
       <c r="G40" t="n">
-        <v>85.45435151128341</v>
+        <v>55.60476628339885</v>
       </c>
       <c r="H40" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I40" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J40" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="K40" t="n">
-        <v>114.4645515065377</v>
+        <v>114.4645515065376</v>
       </c>
       <c r="L40" t="n">
         <v>249.3912153151119</v>
       </c>
       <c r="M40" t="n">
-        <v>403.5699112404739</v>
+        <v>403.5699112404737</v>
       </c>
       <c r="N40" t="n">
-        <v>557.3170398523197</v>
+        <v>557.3170398523196</v>
       </c>
       <c r="O40" t="n">
-        <v>688.4088444977267</v>
+        <v>688.4088444977266</v>
       </c>
       <c r="P40" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="Q40" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="R40" t="n">
-        <v>779.2963542114471</v>
+        <v>779.296354211447</v>
       </c>
       <c r="S40" t="n">
-        <v>725.4059876211002</v>
+        <v>695.5564023932161</v>
       </c>
       <c r="T40" t="n">
-        <v>648.9481825096318</v>
+        <v>619.0985972817477</v>
       </c>
       <c r="U40" t="n">
-        <v>517.4855962264122</v>
+        <v>487.6360109985281</v>
       </c>
       <c r="V40" t="n">
-        <v>412.465098096414</v>
+        <v>382.6155128685298</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0235029253923</v>
+        <v>252.1739176975081</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4858451323473</v>
+        <v>176.636259904463</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.1654926362036</v>
+        <v>110.3159074083192</v>
       </c>
     </row>
     <row r="41">
@@ -7394,28 +7394,28 @@
         <v>995.7024647803498</v>
       </c>
       <c r="E41" t="n">
-        <v>753.4913140542964</v>
+        <v>753.4913140542963</v>
       </c>
       <c r="F41" t="n">
-        <v>491.9146925323062</v>
+        <v>491.9146925323061</v>
       </c>
       <c r="G41" t="n">
         <v>228.9103417420613</v>
       </c>
       <c r="H41" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I41" t="n">
-        <v>54.04097469877441</v>
+        <v>54.04097469877402</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7170583027441</v>
+        <v>169.7170583027438</v>
       </c>
       <c r="K41" t="n">
-        <v>475.3187395708919</v>
+        <v>475.3187395708915</v>
       </c>
       <c r="L41" t="n">
-        <v>904.4146552323436</v>
+        <v>904.4146552323432</v>
       </c>
       <c r="M41" t="n">
         <v>1388.016197698139</v>
@@ -7427,7 +7427,7 @@
         <v>2249.883978343089</v>
       </c>
       <c r="P41" t="n">
-        <v>2552.043552337787</v>
+        <v>2552.043552337786</v>
       </c>
       <c r="Q41" t="n">
         <v>2702.04873493872</v>
@@ -7439,10 +7439,10 @@
         <v>2679.359283604754</v>
       </c>
       <c r="T41" t="n">
-        <v>2653.836705503736</v>
+        <v>2609.873385491382</v>
       </c>
       <c r="U41" t="n">
-        <v>2551.567943712588</v>
+        <v>2507.604623700234</v>
       </c>
       <c r="V41" t="n">
         <v>2367.163238776368</v>
@@ -7485,25 +7485,25 @@
         <v>112.7507037584951</v>
       </c>
       <c r="I42" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J42" t="n">
-        <v>54.04097469877441</v>
+        <v>140.3091644364222</v>
       </c>
       <c r="K42" t="n">
-        <v>160.5376302971414</v>
+        <v>414.261860289012</v>
       </c>
       <c r="L42" t="n">
-        <v>586.1443140931722</v>
+        <v>839.8685440850427</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.943754411178</v>
+        <v>1394.667984403048</v>
       </c>
       <c r="N42" t="n">
-        <v>1723.821988064411</v>
+        <v>1977.546218056281</v>
       </c>
       <c r="O42" t="n">
-        <v>2181.533465784023</v>
+        <v>2435.257695775893</v>
       </c>
       <c r="P42" t="n">
         <v>2536.208161023665</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.74703478390309</v>
+        <v>92.39338047113486</v>
       </c>
       <c r="C43" t="n">
-        <v>74.70563441342296</v>
+        <v>75.35198010065476</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20831040902526</v>
+        <v>74.85465609625709</v>
       </c>
       <c r="E43" t="n">
-        <v>74.76261079509342</v>
+        <v>74.85465609625709</v>
       </c>
       <c r="F43" t="n">
-        <v>74.85465609625714</v>
+        <v>74.85465609625709</v>
       </c>
       <c r="G43" t="n">
-        <v>58.74500342713843</v>
+        <v>58.7450034271384</v>
       </c>
       <c r="H43" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I43" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J43" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="K43" t="n">
-        <v>114.4645515065377</v>
+        <v>114.4645515065376</v>
       </c>
       <c r="L43" t="n">
         <v>249.3912153151119</v>
       </c>
       <c r="M43" t="n">
-        <v>403.5699112404739</v>
+        <v>403.5699112404737</v>
       </c>
       <c r="N43" t="n">
-        <v>557.3170398523197</v>
+        <v>557.3170398523196</v>
       </c>
       <c r="O43" t="n">
-        <v>688.4088444977267</v>
+        <v>688.4088444977266</v>
       </c>
       <c r="P43" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690958</v>
       </c>
       <c r="Q43" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690958</v>
       </c>
       <c r="R43" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690958</v>
       </c>
       <c r="S43" t="n">
-        <v>726.8097521477775</v>
+        <v>727.4560978350092</v>
       </c>
       <c r="T43" t="n">
-        <v>647.2117098925696</v>
+        <v>647.8580555798013</v>
       </c>
       <c r="U43" t="n">
-        <v>512.6088864656105</v>
+        <v>513.2552321528422</v>
       </c>
       <c r="V43" t="n">
-        <v>404.4481511918726</v>
+        <v>405.0944968791043</v>
       </c>
       <c r="W43" t="n">
-        <v>270.8663188771113</v>
+        <v>271.512664564343</v>
       </c>
       <c r="X43" t="n">
-        <v>192.1884239403267</v>
+        <v>192.8347696275584</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.7278343004433</v>
+        <v>123.3741799876751</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1424.037181206253</v>
+        <v>1445.31104988464</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.6779917069</v>
+        <v>1215.951860385287</v>
       </c>
       <c r="D44" t="n">
-        <v>974.4285961019632</v>
+        <v>995.7024647803501</v>
       </c>
       <c r="E44" t="n">
-        <v>732.2174453759096</v>
+        <v>753.4913140542963</v>
       </c>
       <c r="F44" t="n">
-        <v>470.6408238539195</v>
+        <v>491.9146925323062</v>
       </c>
       <c r="G44" t="n">
         <v>228.9103417420613</v>
       </c>
       <c r="H44" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I44" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J44" t="n">
         <v>169.7170583027441</v>
       </c>
       <c r="K44" t="n">
-        <v>475.3187395708917</v>
+        <v>475.3187395708915</v>
       </c>
       <c r="L44" t="n">
-        <v>904.4146552323434</v>
+        <v>904.4146552323432</v>
       </c>
       <c r="M44" t="n">
         <v>1388.016197698139</v>
@@ -7664,7 +7664,7 @@
         <v>2249.883978343089</v>
       </c>
       <c r="P44" t="n">
-        <v>2552.043552337787</v>
+        <v>2552.043552337786</v>
       </c>
       <c r="Q44" t="n">
         <v>2702.04873493872</v>
@@ -7679,19 +7679,19 @@
         <v>2632.562836825348</v>
       </c>
       <c r="U44" t="n">
-        <v>2530.2940750342</v>
+        <v>2551.567943712587</v>
       </c>
       <c r="V44" t="n">
-        <v>2345.889370097982</v>
+        <v>2367.163238776368</v>
       </c>
       <c r="W44" t="n">
-        <v>2135.929009123422</v>
+        <v>2157.202877801809</v>
       </c>
       <c r="X44" t="n">
-        <v>1906.473437812755</v>
+        <v>1927.747306491142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.506151556433</v>
+        <v>1686.78002023482</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.7507037584951</v>
       </c>
       <c r="I45" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J45" t="n">
-        <v>54.04097469877441</v>
+        <v>140.3091644364222</v>
       </c>
       <c r="K45" t="n">
-        <v>327.9936705513642</v>
+        <v>414.261860289012</v>
       </c>
       <c r="L45" t="n">
-        <v>753.6003543473948</v>
+        <v>839.8685440850427</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.943754411178</v>
+        <v>1394.667984403048</v>
       </c>
       <c r="N45" t="n">
-        <v>1723.821988064411</v>
+        <v>1530.90283897029</v>
       </c>
       <c r="O45" t="n">
-        <v>2181.533465784023</v>
+        <v>1988.614316689902</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.208161023665</v>
+        <v>2343.289011929544</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.208161023665</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.74703478390309</v>
+        <v>92.39338047113498</v>
       </c>
       <c r="C46" t="n">
-        <v>74.70563441342296</v>
+        <v>75.35198010065484</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20831040902526</v>
+        <v>74.85465609625714</v>
       </c>
       <c r="E46" t="n">
-        <v>74.76261079509342</v>
+        <v>74.85465609625714</v>
       </c>
       <c r="F46" t="n">
         <v>74.85465609625714</v>
@@ -7798,58 +7798,58 @@
         <v>58.74500342713843</v>
       </c>
       <c r="H46" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="I46" t="n">
-        <v>54.04097469877441</v>
+        <v>54.0409746987744</v>
       </c>
       <c r="J46" t="n">
-        <v>54.04097469877441</v>
+        <v>59.23132205642347</v>
       </c>
       <c r="K46" t="n">
-        <v>114.4645515065377</v>
+        <v>119.6548988641867</v>
       </c>
       <c r="L46" t="n">
-        <v>249.3912153151119</v>
+        <v>254.5815626727609</v>
       </c>
       <c r="M46" t="n">
-        <v>403.5699112404739</v>
+        <v>408.7602585981228</v>
       </c>
       <c r="N46" t="n">
-        <v>557.3170398523197</v>
+        <v>562.5073872099687</v>
       </c>
       <c r="O46" t="n">
-        <v>688.4088444977267</v>
+        <v>693.5991918553757</v>
       </c>
       <c r="P46" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690961</v>
       </c>
       <c r="Q46" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690961</v>
       </c>
       <c r="R46" t="n">
-        <v>783.8403558818642</v>
+        <v>784.4867015690961</v>
       </c>
       <c r="S46" t="n">
-        <v>726.8097521477775</v>
+        <v>727.4560978350095</v>
       </c>
       <c r="T46" t="n">
-        <v>647.2117098925696</v>
+        <v>647.8580555798015</v>
       </c>
       <c r="U46" t="n">
-        <v>512.6088864656105</v>
+        <v>513.2552321528424</v>
       </c>
       <c r="V46" t="n">
-        <v>404.4481511918726</v>
+        <v>405.0944968791046</v>
       </c>
       <c r="W46" t="n">
-        <v>270.8663188771113</v>
+        <v>271.5126645643433</v>
       </c>
       <c r="X46" t="n">
-        <v>192.1884239403267</v>
+        <v>192.8347696275586</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.7278343004433</v>
+        <v>123.3741799876752</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
-        <v>197.1659932800904</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.2286203399446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,28 +8529,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>113.0652504495981</v>
+        <v>112.660818983621</v>
       </c>
       <c r="K9" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1806808881021</v>
+        <v>122.5851123540791</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>416.8518623133535</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>402.3429758611879</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>124.4891013922868</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>171.9901582769307</v>
+        <v>171.9901582769311</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>203.8302549619561</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>253.8733051151854</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.4891013922868</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9173,16 +9173,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>552.5556569738404</v>
       </c>
       <c r="O17" t="n">
-        <v>327.5245044142401</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>124.4891013922868</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.77876034894781</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>67.08491331575651</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>244.8540838236123</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.23264668880455</v>
+        <v>98.66544048751071</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>102.9810708307972</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8733051151854</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>225.3382855234469</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>76.77876034894781</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>241.4012400988948</v>
       </c>
       <c r="N21" t="n">
-        <v>171.9901582769307</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>76.77876034894781</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>52.1867076863851</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>259.1297438705146</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>392.7524120703414</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9954,7 +9954,7 @@
         <v>76.77876034894781</v>
       </c>
       <c r="K27" t="n">
-        <v>67.08491331575649</v>
+        <v>174.6572927080461</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.8050260810944</v>
+        <v>78.23264668880455</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7787603489478</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>67.08491331575649</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>171.9901582769307</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.8050260810939</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>76.7787603489478</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>67.08491331575651</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10440,10 +10440,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>148.0056722836435</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>239.5665656628257</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>322.5556209547755</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>52.1867076863851</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>157.7144982300286</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.23264668880455</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406819</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7787603489478</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>67.08491331575649</v>
+        <v>87.51770711446284</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>185.8050260810939</v>
+        <v>78.23264668880455</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7787603489478</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>174.6572927080464</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>157.7144982300291</v>
       </c>
       <c r="Q42" t="n">
         <v>78.23264668880455</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7787603489478</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>436.2690674666943</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>171.9901582769309</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.23264668880455</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>287.9540251593622</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.1258412473394</v>
       </c>
       <c r="G11" t="n">
-        <v>238.0212413431557</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.2856593134233</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.16498594056917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.65013243597849</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>149.4110601138059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.025743305383</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.7225993343284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.2305835449287</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.2118875894567</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.78462866296332</v>
+        <v>48.16498594056919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.62754276119563</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>116.9560250728076</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.982244412356836</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.7256438274261</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.025743305383</v>
       </c>
       <c r="X14" t="n">
         <v>275.3260015381296</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>164.1821681759052</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>164.1821681759058</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>164.1821681759046</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.35372204832432</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.69120672664751</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>98.13723940093462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>48.16498594056917</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>59.35093715472941</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>107.5159230952989</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>48.16498594056917</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>59.35093715472798</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>107.5159230952968</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>43.52368681223042</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>43.52368681223017</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>21.0611299916028</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>21.06112999160331</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834869.3787721437</v>
+        <v>834869.3787721439</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834869.3787721437</v>
+        <v>834869.3787721439</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895842.8574554367</v>
+        <v>895842.857455437</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>904687.1225307039</v>
+        <v>904687.1225307041</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>904687.1225307041</v>
+        <v>904687.1225307044</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574407.4736304781</v>
+        <v>574407.4736304783</v>
       </c>
       <c r="C2" t="n">
-        <v>574407.473630478</v>
+        <v>574407.4736304783</v>
       </c>
       <c r="D2" t="n">
-        <v>575602.62927716</v>
+        <v>575602.6292771603</v>
       </c>
       <c r="E2" t="n">
         <v>520186.2609180653</v>
@@ -26326,34 +26326,34 @@
         <v>520186.2609180654</v>
       </c>
       <c r="G2" t="n">
-        <v>565916.3699305353</v>
+        <v>565916.3699305349</v>
       </c>
       <c r="H2" t="n">
-        <v>565916.3699305356</v>
+        <v>565916.3699305349</v>
       </c>
       <c r="I2" t="n">
         <v>575718.0453706369</v>
       </c>
       <c r="J2" t="n">
-        <v>569299.3447618472</v>
+        <v>569299.3447618474</v>
       </c>
       <c r="K2" t="n">
-        <v>569299.3447618472</v>
+        <v>569299.3447618476</v>
       </c>
       <c r="L2" t="n">
-        <v>575718.0453706374</v>
+        <v>575718.0453706376</v>
       </c>
       <c r="M2" t="n">
+        <v>575718.0453706369</v>
+      </c>
+      <c r="N2" t="n">
         <v>575718.0453706367</v>
       </c>
-      <c r="N2" t="n">
-        <v>575718.0453706364</v>
-      </c>
       <c r="O2" t="n">
-        <v>573119.6812679466</v>
+        <v>573119.6812679468</v>
       </c>
       <c r="P2" t="n">
-        <v>573119.6812679464</v>
+        <v>573119.6812679468</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>372263.1464862366</v>
+        <v>372263.1464862367</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>41019.05657029705</v>
+        <v>41019.05657029701</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11250.12532042499</v>
+        <v>11250.1253204249</v>
       </c>
       <c r="J3" t="n">
-        <v>85682.98589980369</v>
+        <v>85682.98589980381</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48825.00241115565</v>
+        <v>48825.00241115552</v>
       </c>
       <c r="M3" t="n">
-        <v>148726.3671434718</v>
+        <v>148726.3671434719</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38800.94564033475</v>
+        <v>38800.94564033485</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652482</v>
+        <v>392094.6976652483</v>
       </c>
       <c r="E4" t="n">
         <v>248332.7741820917</v>
       </c>
       <c r="F4" t="n">
-        <v>248332.7741820917</v>
+        <v>248332.7741820918</v>
       </c>
       <c r="G4" t="n">
         <v>282899.4392199283</v>
@@ -26436,7 +26436,7 @@
         <v>282899.4392199283</v>
       </c>
       <c r="I4" t="n">
-        <v>287253.0725650878</v>
+        <v>287253.0725650879</v>
       </c>
       <c r="J4" t="n">
         <v>283290.9373012753</v>
@@ -26445,7 +26445,7 @@
         <v>283290.9373012753</v>
       </c>
       <c r="L4" t="n">
-        <v>288085.9919535737</v>
+        <v>288085.9919535735</v>
       </c>
       <c r="M4" t="n">
         <v>287253.0725650879</v>
@@ -26476,10 +26476,10 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49967.09275262394</v>
+        <v>49967.09275262395</v>
       </c>
       <c r="F5" t="n">
-        <v>49967.09275262394</v>
+        <v>49967.09275262395</v>
       </c>
       <c r="G5" t="n">
         <v>54277.63158613432</v>
@@ -26488,28 +26488,28 @@
         <v>54277.63158613432</v>
       </c>
       <c r="I5" t="n">
-        <v>56849.85273257193</v>
+        <v>56849.85273257192</v>
       </c>
       <c r="J5" t="n">
-        <v>62855.67630160444</v>
+        <v>62855.67630160446</v>
       </c>
       <c r="K5" t="n">
-        <v>62855.67630160445</v>
+        <v>62855.67630160446</v>
       </c>
       <c r="L5" t="n">
-        <v>63067.38540772115</v>
+        <v>63067.38540772114</v>
       </c>
       <c r="M5" t="n">
-        <v>56849.85273257192</v>
+        <v>56849.8527325719</v>
       </c>
       <c r="N5" t="n">
-        <v>56849.85273257192</v>
+        <v>56849.8527325719</v>
       </c>
       <c r="O5" t="n">
-        <v>56588.49610209925</v>
+        <v>56588.49610209923</v>
       </c>
       <c r="P5" t="n">
-        <v>56588.49610209925</v>
+        <v>56588.49610209923</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148246.9652373538</v>
+        <v>148242.5966648867</v>
       </c>
       <c r="C6" t="n">
-        <v>148246.9652373537</v>
+        <v>148242.5966648867</v>
       </c>
       <c r="D6" t="n">
-        <v>146162.4366215676</v>
+        <v>146162.0519012561</v>
       </c>
       <c r="E6" t="n">
-        <v>-150376.752502887</v>
+        <v>-150561.8584510623</v>
       </c>
       <c r="F6" t="n">
-        <v>221886.3939833498</v>
+        <v>221701.2880351745</v>
       </c>
       <c r="G6" t="n">
-        <v>187720.2425541756</v>
+        <v>187687.5703027082</v>
       </c>
       <c r="H6" t="n">
-        <v>228739.2991244729</v>
+        <v>228706.6268730052</v>
       </c>
       <c r="I6" t="n">
-        <v>220364.9947525521</v>
+        <v>220364.9947525522</v>
       </c>
       <c r="J6" t="n">
-        <v>137469.7452591637</v>
+        <v>137448.3495904678</v>
       </c>
       <c r="K6" t="n">
-        <v>223152.7311589674</v>
+        <v>223131.3354902719</v>
       </c>
       <c r="L6" t="n">
-        <v>175739.665598187</v>
+        <v>175739.6655981874</v>
       </c>
       <c r="M6" t="n">
-        <v>82888.75292950511</v>
+        <v>82888.75292950518</v>
       </c>
       <c r="N6" t="n">
-        <v>231615.1200729764</v>
+        <v>231615.120072977</v>
       </c>
       <c r="O6" t="n">
-        <v>192452.9632888541</v>
+        <v>192444.3020751785</v>
       </c>
       <c r="P6" t="n">
-        <v>231253.9089291886</v>
+        <v>231245.2477155134</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>102.883837535592</v>
       </c>
       <c r="G2" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="H2" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="I2" t="n">
         <v>154.1576582484633</v>
@@ -26713,13 +26713,13 @@
         <v>102.883837535592</v>
       </c>
       <c r="L2" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="M2" t="n">
         <v>154.1576582484633</v>
       </c>
       <c r="N2" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="O2" t="n">
         <v>151.0488234761612</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.3042105602433</v>
+        <v>129.3042105602434</v>
       </c>
       <c r="F3" t="n">
         <v>129.3042105602433</v>
@@ -26796,40 +26796,40 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>633.2059148787986</v>
+        <v>633.2059148787987</v>
       </c>
       <c r="F4" t="n">
-        <v>633.2059148787986</v>
+        <v>633.2059148787987</v>
       </c>
       <c r="G4" t="n">
-        <v>633.2059148787986</v>
+        <v>633.2059148787987</v>
       </c>
       <c r="H4" t="n">
-        <v>633.2059148787986</v>
+        <v>633.2059148787987</v>
       </c>
       <c r="I4" t="n">
-        <v>675.5121837346805</v>
+        <v>675.5121837346803</v>
       </c>
       <c r="J4" t="n">
-        <v>845.1891969343991</v>
+        <v>845.1891969343992</v>
       </c>
       <c r="K4" t="n">
-        <v>845.1891969343991</v>
+        <v>845.1891969343992</v>
       </c>
       <c r="L4" t="n">
-        <v>835.1795181514677</v>
+        <v>835.1795181514678</v>
       </c>
       <c r="M4" t="n">
-        <v>675.5121837346801</v>
+        <v>675.51218373468</v>
       </c>
       <c r="N4" t="n">
-        <v>675.5121837346801</v>
+        <v>675.51218373468</v>
       </c>
       <c r="O4" t="n">
-        <v>675.5121837346801</v>
+        <v>675.51218373468</v>
       </c>
       <c r="P4" t="n">
-        <v>675.5121837346801</v>
+        <v>675.51218373468</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>102.883837535592</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>51.27382071287131</v>
+        <v>51.27382071287126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.61001682272067</v>
+        <v>51.61001682272071</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.03125301394456</v>
+        <v>61.03125301394441</v>
       </c>
       <c r="M2" t="n">
-        <v>41.51638841179806</v>
+        <v>41.51638841179819</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>48.50118205041844</v>
+        <v>48.50118205041856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.3042105602433</v>
+        <v>129.3042105602434</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>623.1962360958672</v>
+        <v>623.1962360958673</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.30626885588197</v>
+        <v>42.30626885588163</v>
       </c>
       <c r="J4" t="n">
-        <v>169.6770131997185</v>
+        <v>169.6770131997189</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>463.5289016790796</v>
+        <v>463.5289016790795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.883837535592</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.27382071287131</v>
+        <v>51.27382071287126</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.61001682272067</v>
+        <v>51.61001682272071</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>623.1962360958672</v>
+        <v>623.1962360958673</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>176.5401605439436</v>
       </c>
       <c r="T8" t="n">
-        <v>213.298831734293</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>90.12195380676299</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>57.68878367390825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>176.7885740127433</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>207.493319405667</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,7 +28017,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>140.479245313363</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>50.64014112796306</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>138.0168847888342</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>249.3114263251557</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.07901673818102</v>
+        <v>57.079016738181</v>
       </c>
       <c r="S11" t="n">
         <v>102.883837535592</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="C17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="D17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="E17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="F17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="G17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="H17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="I17" t="n">
         <v>151.0488234761612</v>
@@ -28612,25 +28612,25 @@
         <v>57.07901673818102</v>
       </c>
       <c r="S17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="T17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="U17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="V17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="W17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="X17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="C19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,10 +28734,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="H19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="I19" t="n">
         <v>135.748910206901</v>
@@ -28770,25 +28770,25 @@
         <v>137.5423238106022</v>
       </c>
       <c r="S19" t="n">
-        <v>154.1576582484633</v>
+        <v>124.6065688728594</v>
       </c>
       <c r="T19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="U19" t="n">
-        <v>124.6065688728591</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="V19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="W19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="X19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="C20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="D20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="E20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="F20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="G20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="H20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="I20" t="n">
         <v>151.0488234761612</v>
@@ -28849,25 +28849,25 @@
         <v>57.07901673818102</v>
       </c>
       <c r="S20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="T20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="U20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="V20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="W20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="X20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="Y20" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
     </row>
     <row r="21">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="C22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>121.9900848649111</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="H22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="I22" t="n">
         <v>135.748910206901</v>
@@ -29007,25 +29007,25 @@
         <v>137.5423238106022</v>
       </c>
       <c r="S22" t="n">
-        <v>124.6065688728591</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="T22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="U22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="V22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="W22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="X22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.1576582484633</v>
+        <v>154.1576582484632</v>
       </c>
     </row>
     <row r="23">
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>120.9378347206902</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>135.748910206901</v>
       </c>
       <c r="J25" t="n">
-        <v>32.04738198676325</v>
+        <v>42.97143922411635</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>18.62703213825112</v>
       </c>
       <c r="R25" t="n">
         <v>137.5423238106022</v>
@@ -29296,7 +29296,7 @@
         <v>102.883837535592</v>
       </c>
       <c r="J26" t="n">
-        <v>102.883837535592</v>
+        <v>8.744569890955233</v>
       </c>
       <c r="K26" t="n">
         <v>102.883837535592</v>
@@ -29305,7 +29305,7 @@
         <v>102.883837535592</v>
       </c>
       <c r="M26" t="n">
-        <v>102.883837535592</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>102.883837535592</v>
@@ -29314,10 +29314,10 @@
         <v>102.883837535592</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>102.883837535592</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.744569890954779</v>
+        <v>102.883837535592</v>
       </c>
       <c r="R26" t="n">
         <v>102.883837535592</v>
@@ -29533,19 +29533,19 @@
         <v>102.883837535592</v>
       </c>
       <c r="J29" t="n">
-        <v>102.883837535592</v>
+        <v>8.744569890955006</v>
       </c>
       <c r="K29" t="n">
-        <v>102.883837535592</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>102.883837535592</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>102.883837535592</v>
       </c>
       <c r="N29" t="n">
-        <v>54.54939068836552</v>
+        <v>102.883837535592</v>
       </c>
       <c r="O29" t="n">
         <v>102.883837535592</v>
@@ -29557,7 +29557,7 @@
         <v>102.883837535592</v>
       </c>
       <c r="R29" t="n">
-        <v>57.07901673818101</v>
+        <v>102.883837535592</v>
       </c>
       <c r="S29" t="n">
         <v>102.883837535592</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="C32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="D32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="E32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="F32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="G32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="H32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="I32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>13.44952995435979</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="L32" t="n">
-        <v>13.4495299543587</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="N32" t="n">
-        <v>112.6412698366653</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="P32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="R32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="S32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="T32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="U32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="V32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="W32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="X32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="C34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="D34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="E34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="F34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="G34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="H34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="I34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="J34" t="n">
-        <v>112.6412698366653</v>
+        <v>42.97143922411635</v>
       </c>
       <c r="K34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="M34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="N34" t="n">
-        <v>81.94855575820739</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="O34" t="n">
-        <v>112.6412698366653</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>112.6412698366653</v>
+        <v>57.60414867234435</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.62703213825111</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="R34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="S34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="T34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="U34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="V34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="W34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="X34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.6412698366653</v>
+        <v>112.6412698366652</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>154.1576582484633</v>
       </c>
       <c r="I35" t="n">
-        <v>151.0488234761611</v>
+        <v>151.0488234761612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.07901673818101</v>
+        <v>57.07901673818102</v>
       </c>
       <c r="S35" t="n">
         <v>154.1576582484633</v>
@@ -30162,10 +30162,10 @@
         <v>154.1576582484633</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7489102069009</v>
+        <v>135.748910206901</v>
       </c>
       <c r="J37" t="n">
-        <v>42.97143922411634</v>
+        <v>42.97143922411635</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.62703213825111</v>
+        <v>18.62703213825112</v>
       </c>
       <c r="R37" t="n">
         <v>137.5423238106022</v>
       </c>
       <c r="S37" t="n">
-        <v>124.6065688728584</v>
+        <v>124.6065688728583</v>
       </c>
       <c r="T37" t="n">
         <v>154.1576582484633</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="C38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="D38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="E38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="F38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="G38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="H38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="I38" t="n">
-        <v>151.0488234761611</v>
+        <v>151.0488234761612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.07901673818101</v>
+        <v>57.07901673818102</v>
       </c>
       <c r="S38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="T38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="U38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="V38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="W38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="X38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="C40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="H40" t="n">
-        <v>124.6065688728577</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="I40" t="n">
-        <v>135.7489102069009</v>
+        <v>135.748910206901</v>
       </c>
       <c r="J40" t="n">
-        <v>42.97143922411634</v>
+        <v>42.97143922411635</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.62703213825111</v>
+        <v>18.62703213825112</v>
       </c>
       <c r="R40" t="n">
         <v>137.5423238106022</v>
       </c>
       <c r="S40" t="n">
-        <v>154.1576582484634</v>
+        <v>124.6065688728583</v>
       </c>
       <c r="T40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="U40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="V40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="W40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="X40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.1576582484634</v>
+        <v>154.1576582484633</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.07901673818101</v>
+        <v>57.07901673818102</v>
       </c>
       <c r="S41" t="n">
         <v>151.0488234761612</v>
@@ -30624,10 +30624,10 @@
         <v>151.0488234761612</v>
       </c>
       <c r="E43" t="n">
-        <v>151.0488234761612</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>151.0488234761612</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>151.0488234761612</v>
@@ -30636,10 +30636,10 @@
         <v>151.0488234761612</v>
       </c>
       <c r="I43" t="n">
-        <v>135.7489102069009</v>
+        <v>135.748910206901</v>
       </c>
       <c r="J43" t="n">
-        <v>42.97143922411634</v>
+        <v>42.97143922411635</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,10 +30657,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.589900677188922</v>
+        <v>5.242775108736112</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.62703213825111</v>
+        <v>18.62703213825112</v>
       </c>
       <c r="R43" t="n">
         <v>137.5423238106022</v>
@@ -30715,7 +30715,7 @@
         <v>151.0488234761612</v>
       </c>
       <c r="I44" t="n">
-        <v>151.0488234761611</v>
+        <v>151.0488234761612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.07901673818101</v>
+        <v>57.07901673818102</v>
       </c>
       <c r="S44" t="n">
         <v>151.0488234761612</v>
@@ -30861,10 +30861,10 @@
         <v>151.0488234761612</v>
       </c>
       <c r="E46" t="n">
-        <v>151.0488234761612</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>151.0488234761612</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>151.0488234761612</v>
@@ -30873,10 +30873,10 @@
         <v>151.0488234761612</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7489102069009</v>
+        <v>135.748910206901</v>
       </c>
       <c r="J46" t="n">
-        <v>42.97143922411634</v>
+        <v>48.21421433285278</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>4.589900677188922</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.62703213825111</v>
+        <v>18.62703213825112</v>
       </c>
       <c r="R46" t="n">
         <v>137.5423238106022</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5198159218502238</v>
+        <v>0.5198159218502242</v>
       </c>
       <c r="H11" t="n">
-        <v>5.323564809648607</v>
+        <v>5.323564809648611</v>
       </c>
       <c r="I11" t="n">
-        <v>20.04020332713078</v>
+        <v>20.04020332713079</v>
       </c>
       <c r="J11" t="n">
-        <v>44.11872659713548</v>
+        <v>44.11872659713551</v>
       </c>
       <c r="K11" t="n">
-        <v>66.12253456905547</v>
+        <v>66.12253456905552</v>
       </c>
       <c r="L11" t="n">
-        <v>82.03085108737928</v>
+        <v>82.03085108737933</v>
       </c>
       <c r="M11" t="n">
-        <v>91.27512748758319</v>
+        <v>91.27512748758325</v>
       </c>
       <c r="N11" t="n">
-        <v>92.75205447554015</v>
+        <v>92.75205447554021</v>
       </c>
       <c r="O11" t="n">
-        <v>87.58313490264197</v>
+        <v>87.58313490264203</v>
       </c>
       <c r="P11" t="n">
-        <v>74.75017933196456</v>
+        <v>74.75017933196462</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.1342716307034</v>
+        <v>56.13427163070344</v>
       </c>
       <c r="R11" t="n">
-        <v>32.65288690092416</v>
+        <v>32.65288690092418</v>
       </c>
       <c r="S11" t="n">
-        <v>11.84530531916199</v>
+        <v>11.845305319162</v>
       </c>
       <c r="T11" t="n">
-        <v>2.275494197899356</v>
+        <v>2.275494197899358</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0415852737480179</v>
+        <v>0.04158527374801793</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2781260378088252</v>
+        <v>0.2781260378088254</v>
       </c>
       <c r="H12" t="n">
-        <v>2.686111996732602</v>
+        <v>2.686111996732603</v>
       </c>
       <c r="I12" t="n">
-        <v>9.575830687716133</v>
+        <v>9.575830687716138</v>
       </c>
       <c r="J12" t="n">
-        <v>26.27681131771888</v>
+        <v>26.2768113177189</v>
       </c>
       <c r="K12" t="n">
-        <v>44.91125585091017</v>
+        <v>44.91125585091019</v>
       </c>
       <c r="L12" t="n">
-        <v>60.38872588476269</v>
+        <v>60.38872588476273</v>
       </c>
       <c r="M12" t="n">
-        <v>70.47079475533259</v>
+        <v>70.47079475533263</v>
       </c>
       <c r="N12" t="n">
-        <v>72.33594700011196</v>
+        <v>72.335947000112</v>
       </c>
       <c r="O12" t="n">
-        <v>66.17325953076903</v>
+        <v>66.17325953076907</v>
       </c>
       <c r="P12" t="n">
-        <v>53.1098747110554</v>
+        <v>53.10987471105544</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.50254475608794</v>
+        <v>35.50254475608796</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26821136500759</v>
+        <v>17.2682113650076</v>
       </c>
       <c r="S12" t="n">
-        <v>5.166069167194623</v>
+        <v>5.166069167194625</v>
       </c>
       <c r="T12" t="n">
         <v>1.121043108536449</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01829776564531746</v>
+        <v>0.01829776564531747</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.233171527239783</v>
+        <v>0.2331715272397831</v>
       </c>
       <c r="H13" t="n">
-        <v>2.073106851277345</v>
+        <v>2.073106851277346</v>
       </c>
       <c r="I13" t="n">
-        <v>7.012103746447293</v>
+        <v>7.012103746447298</v>
       </c>
       <c r="J13" t="n">
-        <v>16.48522697585265</v>
+        <v>16.48522697585267</v>
       </c>
       <c r="K13" t="n">
-        <v>27.09029198294932</v>
+        <v>27.09029198294934</v>
       </c>
       <c r="L13" t="n">
-        <v>34.66624687708556</v>
+        <v>34.66624687708558</v>
       </c>
       <c r="M13" t="n">
-        <v>36.55069676541434</v>
+        <v>36.55069676541436</v>
       </c>
       <c r="N13" t="n">
-        <v>35.68160289115699</v>
+        <v>35.68160289115702</v>
       </c>
       <c r="O13" t="n">
-        <v>32.95773550476497</v>
+        <v>32.95773550476499</v>
       </c>
       <c r="P13" t="n">
-        <v>28.20103634907338</v>
+        <v>28.20103634907339</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.52493579459674</v>
+        <v>19.52493579459675</v>
       </c>
       <c r="R13" t="n">
-        <v>10.48423976116333</v>
+        <v>10.48423976116334</v>
       </c>
       <c r="S13" t="n">
-        <v>4.063543797442398</v>
+        <v>4.0635437974424</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9962783436608905</v>
+        <v>0.9962783436608912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01271844694035181</v>
+        <v>0.01271844694035182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.519815921850224</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H26" t="n">
-        <v>5.323564809648608</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I26" t="n">
         <v>20.04020332713078</v>
       </c>
       <c r="J26" t="n">
-        <v>44.11872659713549</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K26" t="n">
-        <v>66.12253456905549</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L26" t="n">
-        <v>82.03085108737929</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M26" t="n">
-        <v>91.27512748758321</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N26" t="n">
-        <v>92.75205447554016</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O26" t="n">
-        <v>87.583134902642</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P26" t="n">
-        <v>74.75017933196459</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.13427163070342</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R26" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S26" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T26" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04158527374801791</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H27" t="n">
         <v>2.686111996732602</v>
       </c>
       <c r="I27" t="n">
-        <v>9.575830687716135</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J27" t="n">
         <v>26.27681131771888</v>
@@ -33029,19 +33029,19 @@
         <v>44.91125585091017</v>
       </c>
       <c r="L27" t="n">
-        <v>60.3887258847627</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M27" t="n">
-        <v>70.47079475533261</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N27" t="n">
-        <v>72.33594700011197</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O27" t="n">
-        <v>66.17325953076904</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P27" t="n">
-        <v>53.10987471105542</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q27" t="n">
         <v>35.50254475608794</v>
@@ -33050,7 +33050,7 @@
         <v>17.26821136500759</v>
       </c>
       <c r="S27" t="n">
-        <v>5.166069167194624</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T27" t="n">
         <v>1.121043108536449</v>
@@ -33099,13 +33099,13 @@
         <v>2.073106851277345</v>
       </c>
       <c r="I28" t="n">
-        <v>7.012103746447295</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J28" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K28" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L28" t="n">
         <v>34.66624687708556</v>
@@ -33114,10 +33114,10 @@
         <v>36.55069676541434</v>
       </c>
       <c r="N28" t="n">
-        <v>35.681602891157</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O28" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P28" t="n">
         <v>28.20103634907338</v>
@@ -33132,10 +33132,10 @@
         <v>4.063543797442398</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9962783436608907</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H29" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I29" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J29" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K29" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L29" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M29" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N29" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O29" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P29" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R29" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S29" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T29" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H30" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I30" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J30" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K30" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L30" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M30" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N30" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O30" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P30" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R30" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S30" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T30" t="n">
         <v>1.121043108536449</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H31" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I31" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J31" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K31" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L31" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M31" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N31" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O31" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P31" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q31" t="n">
         <v>19.52493579459674</v>
@@ -33366,13 +33366,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S31" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T31" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H32" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I32" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J32" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K32" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L32" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M32" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N32" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O32" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P32" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R32" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S32" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T32" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H33" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I33" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J33" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K33" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L33" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M33" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N33" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O33" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P33" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R33" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S33" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T33" t="n">
         <v>1.121043108536449</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H34" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I34" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J34" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K34" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L34" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M34" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N34" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O34" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P34" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q34" t="n">
         <v>19.52493579459674</v>
@@ -33603,13 +33603,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S34" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T34" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H35" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I35" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J35" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K35" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L35" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M35" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N35" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O35" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P35" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R35" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S35" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T35" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H36" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I36" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J36" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K36" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L36" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M36" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N36" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O36" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P36" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R36" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S36" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T36" t="n">
         <v>1.121043108536449</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H37" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I37" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J37" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K37" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L37" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M37" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N37" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O37" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P37" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q37" t="n">
         <v>19.52493579459674</v>
@@ -33840,13 +33840,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S37" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T37" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H38" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I38" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J38" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K38" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L38" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M38" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N38" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O38" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P38" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R38" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S38" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T38" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H39" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I39" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J39" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K39" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L39" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M39" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N39" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O39" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P39" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R39" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S39" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T39" t="n">
         <v>1.121043108536449</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H40" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I40" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J40" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K40" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L40" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M40" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N40" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O40" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P40" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q40" t="n">
         <v>19.52493579459674</v>
@@ -34077,13 +34077,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S40" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T40" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H41" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I41" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J41" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K41" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L41" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M41" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N41" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O41" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P41" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R41" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S41" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T41" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H42" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I42" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J42" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K42" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L42" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M42" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N42" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O42" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P42" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R42" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S42" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T42" t="n">
         <v>1.121043108536449</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H43" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I43" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J43" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K43" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L43" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M43" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N43" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O43" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P43" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q43" t="n">
         <v>19.52493579459674</v>
@@ -34314,13 +34314,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S43" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T43" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5198159218502241</v>
+        <v>0.5198159218502238</v>
       </c>
       <c r="H44" t="n">
-        <v>5.323564809648609</v>
+        <v>5.323564809648607</v>
       </c>
       <c r="I44" t="n">
-        <v>20.04020332713079</v>
+        <v>20.04020332713078</v>
       </c>
       <c r="J44" t="n">
-        <v>44.1187265971355</v>
+        <v>44.11872659713548</v>
       </c>
       <c r="K44" t="n">
-        <v>66.1225345690555</v>
+        <v>66.12253456905547</v>
       </c>
       <c r="L44" t="n">
-        <v>82.03085108737932</v>
+        <v>82.03085108737928</v>
       </c>
       <c r="M44" t="n">
-        <v>91.27512748758323</v>
+        <v>91.27512748758319</v>
       </c>
       <c r="N44" t="n">
-        <v>92.75205447554019</v>
+        <v>92.75205447554015</v>
       </c>
       <c r="O44" t="n">
-        <v>87.58313490264202</v>
+        <v>87.58313490264197</v>
       </c>
       <c r="P44" t="n">
-        <v>74.7501793319646</v>
+        <v>74.75017933196456</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.13427163070343</v>
+        <v>56.1342716307034</v>
       </c>
       <c r="R44" t="n">
-        <v>32.65288690092417</v>
+        <v>32.65288690092416</v>
       </c>
       <c r="S44" t="n">
         <v>11.84530531916199</v>
       </c>
       <c r="T44" t="n">
-        <v>2.275494197899357</v>
+        <v>2.275494197899356</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04158527374801792</v>
+        <v>0.0415852737480179</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2781260378088253</v>
+        <v>0.2781260378088252</v>
       </c>
       <c r="H45" t="n">
-        <v>2.686111996732603</v>
+        <v>2.686111996732602</v>
       </c>
       <c r="I45" t="n">
-        <v>9.575830687716136</v>
+        <v>9.575830687716133</v>
       </c>
       <c r="J45" t="n">
-        <v>26.27681131771889</v>
+        <v>26.27681131771888</v>
       </c>
       <c r="K45" t="n">
-        <v>44.91125585091019</v>
+        <v>44.91125585091017</v>
       </c>
       <c r="L45" t="n">
-        <v>60.38872588476271</v>
+        <v>60.38872588476269</v>
       </c>
       <c r="M45" t="n">
-        <v>70.47079475533262</v>
+        <v>70.47079475533259</v>
       </c>
       <c r="N45" t="n">
-        <v>72.33594700011199</v>
+        <v>72.33594700011196</v>
       </c>
       <c r="O45" t="n">
-        <v>66.17325953076906</v>
+        <v>66.17325953076903</v>
       </c>
       <c r="P45" t="n">
-        <v>53.10987471105543</v>
+        <v>53.1098747110554</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.50254475608795</v>
+        <v>35.50254475608794</v>
       </c>
       <c r="R45" t="n">
-        <v>17.2682113650076</v>
+        <v>17.26821136500759</v>
       </c>
       <c r="S45" t="n">
-        <v>5.166069167194625</v>
+        <v>5.166069167194623</v>
       </c>
       <c r="T45" t="n">
         <v>1.121043108536449</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2331715272397831</v>
+        <v>0.233171527239783</v>
       </c>
       <c r="H46" t="n">
-        <v>2.073106851277346</v>
+        <v>2.073106851277345</v>
       </c>
       <c r="I46" t="n">
-        <v>7.012103746447297</v>
+        <v>7.012103746447293</v>
       </c>
       <c r="J46" t="n">
-        <v>16.48522697585266</v>
+        <v>16.48522697585265</v>
       </c>
       <c r="K46" t="n">
-        <v>27.09029198294933</v>
+        <v>27.09029198294932</v>
       </c>
       <c r="L46" t="n">
-        <v>34.66624687708557</v>
+        <v>34.66624687708556</v>
       </c>
       <c r="M46" t="n">
-        <v>36.55069676541435</v>
+        <v>36.55069676541434</v>
       </c>
       <c r="N46" t="n">
-        <v>35.68160289115701</v>
+        <v>35.68160289115699</v>
       </c>
       <c r="O46" t="n">
-        <v>32.95773550476498</v>
+        <v>32.95773550476497</v>
       </c>
       <c r="P46" t="n">
-        <v>28.20103634907339</v>
+        <v>28.20103634907338</v>
       </c>
       <c r="Q46" t="n">
         <v>19.52493579459674</v>
@@ -34551,13 +34551,13 @@
         <v>10.48423976116333</v>
       </c>
       <c r="S46" t="n">
-        <v>4.063543797442399</v>
+        <v>4.063543797442398</v>
       </c>
       <c r="T46" t="n">
-        <v>0.996278343660891</v>
+        <v>0.9962783436608905</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01271844694035182</v>
+        <v>0.01271844694035181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="L8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L9" t="n">
-        <v>9.605247316954337</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>116.8445288928988</v>
       </c>
       <c r="K11" t="n">
-        <v>308.6885669375229</v>
+        <v>308.688566937523</v>
       </c>
       <c r="L11" t="n">
-        <v>433.4302178398502</v>
+        <v>433.4302178398503</v>
       </c>
       <c r="M11" t="n">
-        <v>320.9706753037776</v>
+        <v>488.4864065311064</v>
       </c>
       <c r="N11" t="n">
         <v>474.9049420388894</v>
       </c>
       <c r="O11" t="n">
-        <v>395.6685737640904</v>
+        <v>395.6685737640905</v>
       </c>
       <c r="P11" t="n">
-        <v>305.2116909037355</v>
+        <v>289.216346141996</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.5203864655893</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.13958559358367</v>
+        <v>87.13958559358369</v>
       </c>
       <c r="K12" t="n">
         <v>276.7198948005957</v>
       </c>
       <c r="L12" t="n">
-        <v>429.9057412081118</v>
+        <v>429.9057412081119</v>
       </c>
       <c r="M12" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N12" t="n">
-        <v>137.6109642093343</v>
+        <v>137.6109642093348</v>
       </c>
       <c r="O12" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P12" t="n">
-        <v>358.2572679188304</v>
+        <v>358.2572679188305</v>
       </c>
       <c r="Q12" t="n">
         <v>194.8678273677993</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91239831147562</v>
+        <v>59.91239831147564</v>
       </c>
       <c r="K13" t="n">
         <v>163.9177535030296</v>
@@ -35574,7 +35574,7 @@
         <v>239.1733969381922</v>
       </c>
       <c r="M13" t="n">
-        <v>258.6198940258565</v>
+        <v>258.6198940258566</v>
       </c>
       <c r="N13" t="n">
         <v>258.1839674465473</v>
@@ -35583,10 +35583,10 @@
         <v>235.2998018238819</v>
       </c>
       <c r="P13" t="n">
-        <v>194.6894029029863</v>
+        <v>194.6894029029864</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.25680539734086</v>
+        <v>84.25680539734088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.8491841311589</v>
+        <v>116.8445288928988</v>
       </c>
       <c r="K14" t="n">
-        <v>308.6885669375229</v>
+        <v>141.1728357101941</v>
       </c>
       <c r="L14" t="n">
         <v>433.4302178398502</v>
@@ -35665,7 +35665,7 @@
         <v>305.2116909037355</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>151.5203864655893</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.91239831147561</v>
+        <v>59.91239831147563</v>
       </c>
       <c r="K16" t="n">
         <v>163.9177535030296</v>
       </c>
       <c r="L16" t="n">
-        <v>239.1733969381921</v>
+        <v>239.1733969381922</v>
       </c>
       <c r="M16" t="n">
         <v>258.6198940258565</v>
@@ -35820,10 +35820,10 @@
         <v>235.2998018238819</v>
       </c>
       <c r="P16" t="n">
-        <v>194.6894029029863</v>
+        <v>194.6894029029864</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.25680539734083</v>
+        <v>84.25680539734086</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>488.4864065311064</v>
       </c>
       <c r="N17" t="n">
-        <v>474.9049420388894</v>
+        <v>458.9095972771505</v>
       </c>
       <c r="O17" t="n">
-        <v>228.1528425367616</v>
+        <v>395.6685737640904</v>
       </c>
       <c r="P17" t="n">
         <v>305.2116909037355</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.5203864655893</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K18" t="n">
-        <v>276.7198948005957</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>429.9057412081118</v>
@@ -35978,10 +35978,10 @@
         <v>462.3348259794063</v>
       </c>
       <c r="P18" t="n">
-        <v>189.1097525105243</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>20.43279379870616</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.8445288928988</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>141.1728357101941</v>
+        <v>308.6885669375229</v>
       </c>
       <c r="L20" t="n">
         <v>433.4302178398502</v>
@@ -36139,7 +36139,7 @@
         <v>305.2116909037355</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.5203864655893</v>
+        <v>100.84918413116</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.13958559358367</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>276.7198948005957</v>
@@ -36206,10 +36206,10 @@
         <v>429.9057412081118</v>
       </c>
       <c r="M21" t="n">
-        <v>560.4034750686926</v>
+        <v>196.3881322925876</v>
       </c>
       <c r="N21" t="n">
-        <v>137.6109642093343</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O21" t="n">
         <v>462.3348259794063</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.13958559358367</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>276.7198948005957</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M24" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N24" t="n">
-        <v>588.7658925790231</v>
+        <v>224.7505498029182</v>
       </c>
       <c r="O24" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P24" t="n">
-        <v>337.0080807572535</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q24" t="n">
         <v>194.8678273677993</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.7283664284907</v>
+        <v>125.589098783854</v>
       </c>
       <c r="K26" t="n">
-        <v>411.5724044731148</v>
+        <v>411.5724044731149</v>
       </c>
       <c r="L26" t="n">
         <v>536.3140553754422</v>
       </c>
       <c r="M26" t="n">
-        <v>591.3702440666983</v>
+        <v>488.4864065311064</v>
       </c>
       <c r="N26" t="n">
         <v>577.7887795744814</v>
@@ -36610,13 +36610,13 @@
         <v>498.5524112996824</v>
       </c>
       <c r="P26" t="n">
-        <v>305.2116909037355</v>
+        <v>408.0955284393275</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.264956356544</v>
+        <v>254.4042240011813</v>
       </c>
       <c r="R26" t="n">
-        <v>45.80482079741095</v>
+        <v>45.80482079741097</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>107.5723793922896</v>
       </c>
       <c r="L27" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M27" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N27" t="n">
-        <v>588.7658925790232</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O27" t="n">
         <v>462.3348259794063</v>
@@ -36692,7 +36692,7 @@
         <v>358.2572679188304</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.5723793922898</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.91239831147563</v>
+        <v>59.91239831147565</v>
       </c>
       <c r="K28" t="n">
         <v>163.9177535030296</v>
@@ -36768,10 +36768,10 @@
         <v>235.2998018238819</v>
       </c>
       <c r="P28" t="n">
-        <v>194.6894029029863</v>
+        <v>194.6894029029864</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.25680539734086</v>
+        <v>84.25680539734088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.7283664284908</v>
+        <v>125.5890987838538</v>
       </c>
       <c r="K29" t="n">
-        <v>411.5724044731149</v>
+        <v>308.6885669375229</v>
       </c>
       <c r="L29" t="n">
-        <v>536.3140553754423</v>
+        <v>536.3140553754422</v>
       </c>
       <c r="M29" t="n">
-        <v>488.4864065311064</v>
+        <v>591.3702440666984</v>
       </c>
       <c r="N29" t="n">
-        <v>529.454332727255</v>
+        <v>577.7887795744814</v>
       </c>
       <c r="O29" t="n">
-        <v>498.5524112996825</v>
+        <v>498.5524112996824</v>
       </c>
       <c r="P29" t="n">
-        <v>408.0955284393276</v>
+        <v>408.0955284393275</v>
       </c>
       <c r="Q29" t="n">
         <v>254.4042240011813</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>45.80482079741098</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>276.7198948005957</v>
       </c>
       <c r="L30" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M30" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N30" t="n">
-        <v>588.7658925790232</v>
+        <v>137.6109642093343</v>
       </c>
       <c r="O30" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P30" t="n">
-        <v>358.2572679188305</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.5723793922894</v>
+        <v>194.8678273677993</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.91239831147567</v>
+        <v>59.91239831147566</v>
       </c>
       <c r="K31" t="n">
         <v>163.9177535030296</v>
@@ -37008,7 +37008,7 @@
         <v>194.6894029029864</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.2568053973409</v>
+        <v>84.25680539734088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.8445288928988</v>
+        <v>130.2940588472586</v>
       </c>
       <c r="K32" t="n">
-        <v>308.6885669375229</v>
+        <v>421.329836774188</v>
       </c>
       <c r="L32" t="n">
-        <v>446.8797477942089</v>
+        <v>433.4302178398502</v>
       </c>
       <c r="M32" t="n">
-        <v>601.1276763677718</v>
+        <v>601.1276763677715</v>
       </c>
       <c r="N32" t="n">
-        <v>587.5462118755546</v>
+        <v>474.9049420388894</v>
       </c>
       <c r="O32" t="n">
-        <v>508.3098436007558</v>
+        <v>508.3098436007556</v>
       </c>
       <c r="P32" t="n">
-        <v>417.8529607404008</v>
+        <v>417.8529607404006</v>
       </c>
       <c r="Q32" t="n">
-        <v>264.1616563022545</v>
+        <v>264.1616563022544</v>
       </c>
       <c r="R32" t="n">
-        <v>55.56225309848425</v>
+        <v>55.56225309848413</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K33" t="n">
-        <v>276.7198948005957</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M33" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N33" t="n">
-        <v>588.7658925790232</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O33" t="n">
-        <v>98.31948320330146</v>
+        <v>462.3348259794063</v>
       </c>
       <c r="P33" t="n">
-        <v>358.2572679188305</v>
+        <v>183.8222343497378</v>
       </c>
       <c r="Q33" t="n">
         <v>194.8678273677993</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.66983061254892</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>173.6751858041029</v>
+        <v>173.6751858041028</v>
       </c>
       <c r="L34" t="n">
-        <v>136.2895594026002</v>
+        <v>248.9308292392653</v>
       </c>
       <c r="M34" t="n">
-        <v>268.3773263269298</v>
+        <v>268.3773263269297</v>
       </c>
       <c r="N34" t="n">
-        <v>237.2486856691627</v>
+        <v>267.9413997476205</v>
       </c>
       <c r="O34" t="n">
-        <v>245.0572341249552</v>
+        <v>132.4159642882899</v>
       </c>
       <c r="P34" t="n">
-        <v>204.4468352040597</v>
+        <v>149.4097140397387</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>94.01423769841404</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.8445288928988</v>
+        <v>116.8445288928984</v>
       </c>
       <c r="K35" t="n">
         <v>308.6885669375229</v>
@@ -37318,7 +37318,7 @@
         <v>474.9049420388894</v>
       </c>
       <c r="O35" t="n">
-        <v>395.6685737640905</v>
+        <v>395.6685737640904</v>
       </c>
       <c r="P35" t="n">
         <v>305.2116909037355</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.13958559358369</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K36" t="n">
-        <v>276.7198948005957</v>
+        <v>255.470707639019</v>
       </c>
       <c r="L36" t="n">
-        <v>429.9057412081119</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N36" t="n">
-        <v>588.7658925790232</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O36" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9701669169407</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>194.8678273677993</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.03391596743764</v>
+        <v>61.03391596743762</v>
       </c>
       <c r="L37" t="n">
         <v>136.2895594026002</v>
@@ -37479,7 +37479,7 @@
         <v>132.4159642882899</v>
       </c>
       <c r="P37" t="n">
-        <v>91.80556536739439</v>
+        <v>91.80556536739438</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.8445288928984</v>
+        <v>116.8445288928988</v>
       </c>
       <c r="K38" t="n">
         <v>308.6885669375229</v>
@@ -37549,13 +37549,13 @@
         <v>433.4302178398502</v>
       </c>
       <c r="M38" t="n">
-        <v>488.4864065311064</v>
+        <v>488.4864065311061</v>
       </c>
       <c r="N38" t="n">
         <v>474.9049420388894</v>
       </c>
       <c r="O38" t="n">
-        <v>395.6685737640905</v>
+        <v>395.6685737640904</v>
       </c>
       <c r="P38" t="n">
         <v>305.2116909037355</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20.43279379870633</v>
       </c>
       <c r="L39" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M39" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N39" t="n">
-        <v>588.7658925790232</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O39" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P39" t="n">
-        <v>358.2572679188305</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.5723793922894</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.03391596743764</v>
+        <v>61.03391596743762</v>
       </c>
       <c r="L40" t="n">
         <v>136.2895594026002</v>
@@ -37716,7 +37716,7 @@
         <v>132.4159642882899</v>
       </c>
       <c r="P40" t="n">
-        <v>91.80556536739439</v>
+        <v>91.80556536739438</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>474.9049420388894</v>
       </c>
       <c r="O41" t="n">
-        <v>395.6685737640905</v>
+        <v>395.6685737640904</v>
       </c>
       <c r="P41" t="n">
         <v>305.2116909037355</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K42" t="n">
-        <v>107.5723793922899</v>
+        <v>276.7198948005957</v>
       </c>
       <c r="L42" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M42" t="n">
         <v>560.4034750686926</v>
       </c>
       <c r="N42" t="n">
-        <v>588.7658925790232</v>
+        <v>588.7658925790231</v>
       </c>
       <c r="O42" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P42" t="n">
-        <v>358.2572679188305</v>
+        <v>101.9701669169411</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5598993798668346</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09297505168052567</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>61.03391596743764</v>
+        <v>61.03391596743762</v>
       </c>
       <c r="L43" t="n">
         <v>136.2895594026002</v>
@@ -37953,7 +37953,7 @@
         <v>132.4159642882899</v>
       </c>
       <c r="P43" t="n">
-        <v>96.39546604458332</v>
+        <v>97.04834047613049</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>474.9049420388894</v>
       </c>
       <c r="O44" t="n">
-        <v>395.6685737640905</v>
+        <v>395.6685737640904</v>
       </c>
       <c r="P44" t="n">
         <v>305.2116909037355</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.13958559358367</v>
       </c>
       <c r="K45" t="n">
         <v>276.7198948005957</v>
       </c>
       <c r="L45" t="n">
-        <v>429.9057412081119</v>
+        <v>429.9057412081118</v>
       </c>
       <c r="M45" t="n">
-        <v>391.255959660387</v>
+        <v>560.4034750686926</v>
       </c>
       <c r="N45" t="n">
-        <v>588.7658925790232</v>
+        <v>137.6109642093346</v>
       </c>
       <c r="O45" t="n">
         <v>462.3348259794063</v>
       </c>
       <c r="P45" t="n">
-        <v>358.2572679188305</v>
+        <v>358.2572679188304</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.8678273677993</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5598993798668346</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09297505168052567</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.242775108736438</v>
       </c>
       <c r="K46" t="n">
-        <v>61.03391596743764</v>
+        <v>61.03391596743762</v>
       </c>
       <c r="L46" t="n">
         <v>136.2895594026002</v>
@@ -38190,7 +38190,7 @@
         <v>132.4159642882899</v>
       </c>
       <c r="P46" t="n">
-        <v>96.39546604458332</v>
+        <v>91.80556536739438</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
